--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2555.15995797237</v>
+        <v>2558.64880372879</v>
       </c>
       <c r="C2" t="n">
-        <v>1744.44714235741</v>
+        <v>1759.10134581248</v>
       </c>
       <c r="D2" t="n">
-        <v>1282.77457119026</v>
+        <v>1297.86140046276</v>
       </c>
       <c r="E2" t="n">
-        <v>3271.60836321638</v>
+        <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3678.91292686829</v>
+        <v>3691.75437406797</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>110.159957972368</v>
+        <v>113.648803728793</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2595.37747828042</v>
+        <v>2593.65579324119</v>
       </c>
       <c r="C3" t="n">
-        <v>1554.35868951938</v>
+        <v>1566.9811591713</v>
       </c>
       <c r="D3" t="n">
-        <v>1184.10792290528</v>
+        <v>1187.44148105791</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
       </c>
       <c r="F3" t="n">
-        <v>3857.71327860743</v>
+        <v>3857.71328044235</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1662.37747828042</v>
+        <v>1660.65579324119</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4420.00926231258</v>
+        <v>4423.98754958893</v>
       </c>
       <c r="C4" t="n">
-        <v>3172.87278707487</v>
+        <v>3171.01636027756</v>
       </c>
       <c r="D4" t="n">
-        <v>2822.6958747488</v>
+        <v>2818.29453420417</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>912.009262312581</v>
+        <v>915.98754958893</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,13 +523,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4989.45768710487</v>
+        <v>4984.28318047588</v>
       </c>
       <c r="C5" t="n">
-        <v>3698.61255780743</v>
+        <v>3698.61255729682</v>
       </c>
       <c r="D5" t="n">
-        <v>3193.37832919562</v>
+        <v>3193.37832837856</v>
       </c>
       <c r="E5" t="n">
         <v>6480.08200811983</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-370.542312895134</v>
+        <v>-375.716819524117</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5739.47897482285</v>
+        <v>5738.72573712446</v>
       </c>
       <c r="C6" t="n">
-        <v>4275.24548912612</v>
+        <v>4262.65515492181</v>
       </c>
       <c r="D6" t="n">
-        <v>3839.32316032492</v>
+        <v>3841.26529886262</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>475.478974822849</v>
+        <v>474.72573712446</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,13 +587,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5982.92445794894</v>
+        <v>5982.51517326126</v>
       </c>
       <c r="C7" t="n">
-        <v>4568.69647419585</v>
+        <v>4562.15475544576</v>
       </c>
       <c r="D7" t="n">
-        <v>4024.01930121598</v>
+        <v>4024.01929999012</v>
       </c>
       <c r="E7" t="n">
         <v>7687.94166416404</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-210.075542051065</v>
+        <v>-210.484826738741</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,13 +619,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5909.62593587605</v>
+        <v>5908.03531420015</v>
       </c>
       <c r="C8" t="n">
-        <v>4508.01441782727</v>
+        <v>4508.01441521917</v>
       </c>
       <c r="D8" t="n">
-        <v>3930.19074426093</v>
+        <v>3930.19074074789</v>
       </c>
       <c r="E8" t="n">
         <v>7472.82944178799</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>937.625935876049</v>
+        <v>936.035314200155</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,13 +651,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5127.75885666524</v>
+        <v>5127.44193041758</v>
       </c>
       <c r="C9" t="n">
-        <v>3704.75311840279</v>
+        <v>3704.75311686093</v>
       </c>
       <c r="D9" t="n">
-        <v>3107.20703884147</v>
+        <v>3107.20703618962</v>
       </c>
       <c r="E9" t="n">
         <v>6498.24065197739</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>155.758856665242</v>
+        <v>155.441930417579</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3706.25422480188</v>
+        <v>3704.22153460847</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -692,7 +692,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5007.75353862252</v>
+        <v>5001.49945040601</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-785.74577519812</v>
+        <v>-787.778465391527</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2750.88756080361</v>
+        <v>2756.77511142768</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-455.112439196392</v>
+        <v>-449.224888572317</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2981.65005926493</v>
+        <v>2980.62733195151</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-629.349940735074</v>
+        <v>-630.372668048494</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3091.21743239669</v>
+        <v>3087.67613734416</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-602.782567603309</v>
+        <v>-606.323862655843</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2625.10485208971</v>
+        <v>2629.91875145186</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -820,7 +820,7 @@
         <v>59.3413209464643</v>
       </c>
       <c r="E14" t="n">
-        <v>4232.71479127164</v>
+        <v>4232.71479488659</v>
       </c>
       <c r="F14" t="n">
         <v>5000.73058302548</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-549.895147910294</v>
+        <v>-545.081248548136</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2629.7686941966</v>
+        <v>2627.27818743429</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-795.2313058034</v>
+        <v>-797.721812565707</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4441.25268827039</v>
+        <v>4446.81207330879</v>
       </c>
       <c r="C16" t="n">
-        <v>2881.79791377385</v>
+        <v>2869.11511819411</v>
       </c>
       <c r="D16" t="n">
-        <v>2104.92100452984</v>
+        <v>2104.9209996519</v>
       </c>
       <c r="E16" t="n">
         <v>6506.7493935158</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2778.74731172961</v>
+        <v>-2773.18792669121</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,13 +907,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5026.04896116134</v>
+        <v>5017.59866218828</v>
       </c>
       <c r="C17" t="n">
-        <v>3212.30103976393</v>
+        <v>3212.30103585908</v>
       </c>
       <c r="D17" t="n">
-        <v>2353.56278998589</v>
+        <v>2353.56278394553</v>
       </c>
       <c r="E17" t="n">
         <v>7335.18343548591</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2821.95103883866</v>
+        <v>-2830.40133781172</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,13 +939,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5776.16485974206</v>
+        <v>5774.62776879008</v>
       </c>
       <c r="C18" t="n">
-        <v>3974.86523361604</v>
+        <v>3939.23100243554</v>
       </c>
       <c r="D18" t="n">
-        <v>3085.65631581093</v>
+        <v>3085.65630995226</v>
       </c>
       <c r="E18" t="n">
         <v>8174.03037774653</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2319.83514025794</v>
+        <v>-2321.37223120992</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,13 +971,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6001.14237595462</v>
+        <v>6000.68331311254</v>
       </c>
       <c r="C19" t="n">
-        <v>4058.55539687194</v>
+        <v>4058.55539256903</v>
       </c>
       <c r="D19" t="n">
-        <v>3140.9783468377</v>
+        <v>3140.97834003659</v>
       </c>
       <c r="E19" t="n">
         <v>8459.53378273635</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3668.85762404538</v>
+        <v>-3669.31668688746</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,13 +1003,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5938.45863435258</v>
+        <v>5936.62372854517</v>
       </c>
       <c r="C20" t="n">
-        <v>4015.74337457527</v>
+        <v>4015.74336863362</v>
       </c>
       <c r="D20" t="n">
-        <v>3071.2597540294</v>
+        <v>3071.25974540014</v>
       </c>
       <c r="E20" t="n">
         <v>8211.58573614634</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3283.54136564742</v>
+        <v>-3285.37627145483</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,10 +1035,10 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5242.53788628045</v>
+        <v>5239.52562174848</v>
       </c>
       <c r="C21" t="n">
-        <v>3168.01097664527</v>
+        <v>3168.01097141081</v>
       </c>
       <c r="D21" t="n">
         <v>2171.54818529046</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1624.46211371955</v>
+        <v>-1627.47437825152</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3913.26506480411</v>
+        <v>3913.99061649278</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -1076,7 +1076,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6019.62699100673</v>
+        <v>5978.51884185172</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2018.73493519589</v>
+        <v>-2018.00938350722</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,16 +1099,16 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2911.52695166342</v>
+        <v>2919.46966512094</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
       </c>
       <c r="D23" t="n">
-        <v>-495.343780894754</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>4860.05348911032</v>
+        <v>4860.05349532693</v>
       </c>
       <c r="F23" t="n">
         <v>5886.03773432718</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-710.473048336582</v>
+        <v>-702.530334879063</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3054.10973402096</v>
+        <v>3056.49579772203</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
       </c>
       <c r="D24" t="n">
-        <v>-284.918924065541</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>5288.80013450014</v>
+        <v>5288.80014197051</v>
       </c>
       <c r="F24" t="n">
-        <v>6331.89192593679</v>
+        <v>6331.89193682957</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-594.890265979041</v>
+        <v>-592.504202277971</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3145.21365829168</v>
+        <v>3139.31679442257</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
       </c>
       <c r="D25" t="n">
-        <v>-279.836497940562</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5385.31206473107</v>
+        <v>5385.31207200996</v>
       </c>
       <c r="F25" t="n">
-        <v>6451.45145966583</v>
+        <v>6451.45147053987</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1773.78634170832</v>
+        <v>-1779.68320557743</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2695.23807300585</v>
+        <v>2700.32916732889</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
       </c>
       <c r="D26" t="n">
-        <v>-866.924881707415</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5197.79482878529</v>
+        <v>5197.79483594461</v>
       </c>
       <c r="F26" t="n">
-        <v>6333.8576117489</v>
+        <v>6333.85762244382</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1700.76192699415</v>
+        <v>-1695.67083267111</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2704.33708394233</v>
+        <v>2701.555498507</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
       </c>
       <c r="D27" t="n">
-        <v>-678.890536440328</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>5198.66436382924</v>
+        <v>5198.66437201651</v>
       </c>
       <c r="F27" t="n">
-        <v>6388.17725766319</v>
+        <v>6388.17726943355</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1984.66291605767</v>
+        <v>-1987.444501493</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,13 +1259,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4484.60350881266</v>
+        <v>4489.26442157118</v>
       </c>
       <c r="C28" t="n">
-        <v>2379.1250266645</v>
+        <v>2379.12502099825</v>
       </c>
       <c r="D28" t="n">
-        <v>1144.87239476071</v>
+        <v>1144.87238540103</v>
       </c>
       <c r="E28" t="n">
         <v>7082.21666327663</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2171.39649118734</v>
+        <v>-2166.73557842882</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,13 +1291,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5081.47482107326</v>
+        <v>5070.35677194511</v>
       </c>
       <c r="C29" t="n">
-        <v>2684.47445194762</v>
+        <v>2684.47444578355</v>
       </c>
       <c r="D29" t="n">
-        <v>1410.48228289929</v>
+        <v>1410.48227289405</v>
       </c>
       <c r="E29" t="n">
         <v>7897.19884481997</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2042.52517892674</v>
+        <v>-2053.64322805489</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,13 +1323,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5811.59002038033</v>
+        <v>5809.07392277761</v>
       </c>
       <c r="C30" t="n">
-        <v>3384.15643864593</v>
+        <v>3384.15643212497</v>
       </c>
       <c r="D30" t="n">
-        <v>2073.51269910547</v>
+        <v>2073.51268857387</v>
       </c>
       <c r="E30" t="n">
         <v>8723.51632249309</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3012.40997961967</v>
+        <v>-3014.92607722239</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,13 +1355,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6048.26765045081</v>
+        <v>6047.7427210897</v>
       </c>
       <c r="C31" t="n">
-        <v>3505.68264759698</v>
+        <v>3505.68264104479</v>
       </c>
       <c r="D31" t="n">
-        <v>2160.43601970043</v>
+        <v>2160.43600895635</v>
       </c>
       <c r="E31" t="n">
         <v>8997.30974843233</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3894.73234954919</v>
+        <v>-3895.2572789103</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6000.56759520417</v>
+        <v>5998.87203247826</v>
       </c>
       <c r="C32" t="n">
-        <v>3509.73564827344</v>
+        <v>3509.73564091691</v>
       </c>
       <c r="D32" t="n">
-        <v>2131.34612508063</v>
+        <v>2131.34611334552</v>
       </c>
       <c r="E32" t="n">
         <v>8738.38396451946</v>
       </c>
       <c r="F32" t="n">
-        <v>10095.8047537289</v>
+        <v>10095.8047672936</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3682.43240479583</v>
+        <v>-3684.12796752174</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5329.96712533906</v>
+        <v>5325.89694174883</v>
       </c>
       <c r="C33" t="n">
-        <v>2604.02844243844</v>
+        <v>2604.02843513953</v>
       </c>
       <c r="D33" t="n">
-        <v>1193.6098732331</v>
+        <v>1193.60986136751</v>
       </c>
       <c r="E33" t="n">
-        <v>7932.71664102639</v>
+        <v>7932.71665098076</v>
       </c>
       <c r="F33" t="n">
-        <v>9343.13521023173</v>
+        <v>9343.13522475278</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2557.03287466094</v>
+        <v>-2561.10305825117</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4130.10200194362</v>
+        <v>4128.71945953184</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
       </c>
       <c r="D34" t="n">
-        <v>-258.293287713975</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6688.70185061788</v>
+        <v>6688.70186071451</v>
       </c>
       <c r="F34" t="n">
-        <v>8130.24725506544</v>
+        <v>8130.24726991574</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1180.89799805638</v>
+        <v>-1182.28054046816</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3130.15464202779</v>
+        <v>3134.06203268856</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
       </c>
       <c r="D35" t="n">
-        <v>-1256.30058556758</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>5976.74278601826</v>
+        <v>5976.74279648213</v>
       </c>
       <c r="F35" t="n">
-        <v>7448.64810326818</v>
+        <v>7448.64811867015</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>595.154642027789</v>
+        <v>599.062032688556</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3153.0365174059</v>
+        <v>3160.10831658819</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
       </c>
       <c r="D36" t="n">
-        <v>-1032.57126695774</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>6365.93948490692</v>
+        <v>6365.9394959068</v>
       </c>
       <c r="F36" t="n">
-        <v>7867.52880970969</v>
+        <v>7867.52882582874</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>584.036517405905</v>
+        <v>591.108316588192</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3215.09768807611</v>
+        <v>3209.30316530814</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
       </c>
       <c r="D37" t="n">
-        <v>-1014.86481044956</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6508.03695479964</v>
+        <v>6508.03696610431</v>
       </c>
       <c r="F37" t="n">
-        <v>8038.69913666613</v>
+        <v>8038.69915326723</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1395.09768807611</v>
+        <v>1389.30316530814</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2765.40360362234</v>
+        <v>2770.58504949642</v>
       </c>
       <c r="C38" t="n">
-        <v>-163.883586479904</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1589.95844745759</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6312.99277073103</v>
+        <v>6312.9927817323</v>
       </c>
       <c r="F38" t="n">
-        <v>7924.46080465481</v>
+        <v>7924.4608210566</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>447.403603622338</v>
+        <v>452.585049496417</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2776.02021009464</v>
+        <v>2773.26518982328</v>
       </c>
       <c r="C39" t="n">
-        <v>21.172046653071</v>
+        <v>21.1720384087052</v>
       </c>
       <c r="D39" t="n">
-        <v>-1653.55287264854</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6348.43340594704</v>
+        <v>6348.43341868118</v>
       </c>
       <c r="F39" t="n">
-        <v>8023.15832524865</v>
+        <v>8023.15834353548</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2885.97978990536</v>
+        <v>-2888.73481017672</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4529.93739605294</v>
+        <v>4531.32063943249</v>
       </c>
       <c r="C40" t="n">
-        <v>1669.54752963519</v>
+        <v>1669.54752072239</v>
       </c>
       <c r="D40" t="n">
-        <v>-58.9862471911192</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>8200.10359188596</v>
+        <v>8200.10360467095</v>
       </c>
       <c r="F40" t="n">
-        <v>9928.63736871227</v>
+        <v>9928.63738724032</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2013.06260394706</v>
+        <v>-2011.67936056751</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5122.50163458391</v>
+        <v>5108.53787067711</v>
       </c>
       <c r="C41" t="n">
-        <v>1932.26687121523</v>
+        <v>1932.26686118833</v>
       </c>
       <c r="D41" t="n">
-        <v>155.407616386322</v>
+        <v>155.407600399623</v>
       </c>
       <c r="E41" t="n">
-        <v>8645.4009354478</v>
+        <v>8645.40094793755</v>
       </c>
       <c r="F41" t="n">
-        <v>10422.2601902767</v>
+        <v>10422.2602087262</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2554.49836541609</v>
+        <v>-2568.46212932289</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5852.28005733128</v>
+        <v>5848.33834160929</v>
       </c>
       <c r="C42" t="n">
-        <v>2627.20829230121</v>
+        <v>2627.20828193442</v>
       </c>
       <c r="D42" t="n">
-        <v>805.434033205594</v>
+        <v>805.434016645814</v>
       </c>
       <c r="E42" t="n">
-        <v>9510.03528202496</v>
+        <v>9510.03529505586</v>
       </c>
       <c r="F42" t="n">
-        <v>11331.8095411206</v>
+        <v>11331.8095603445</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3214.71994266872</v>
+        <v>-3218.66165839071</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6086.55970203487</v>
+        <v>6085.70295845326</v>
       </c>
       <c r="C43" t="n">
-        <v>2728.52604821581</v>
+        <v>2728.52603772469</v>
       </c>
       <c r="D43" t="n">
-        <v>864.111083341013</v>
+        <v>864.111066414664</v>
       </c>
       <c r="E43" t="n">
-        <v>9772.45345920881</v>
+        <v>9772.45347303057</v>
       </c>
       <c r="F43" t="n">
-        <v>11636.8684240836</v>
+        <v>11636.8684443406</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2239.44029796513</v>
+        <v>-2240.29704154674</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6029.00070408025</v>
+        <v>6027.40818959666</v>
       </c>
       <c r="C44" t="n">
-        <v>2678.2644354978</v>
+        <v>2678.26442334632</v>
       </c>
       <c r="D44" t="n">
-        <v>772.836734173469</v>
+        <v>772.836715340723</v>
       </c>
       <c r="E44" t="n">
-        <v>9877.14165322343</v>
+        <v>9877.14166631438</v>
       </c>
       <c r="F44" t="n">
-        <v>11782.5693545478</v>
+        <v>11782.56937432</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3134.99929591975</v>
+        <v>-3136.59181040334</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5378.54761477184</v>
+        <v>5374.49512894697</v>
       </c>
       <c r="C45" t="n">
-        <v>1789.30201331249</v>
+        <v>1789.30200171136</v>
       </c>
       <c r="D45" t="n">
-        <v>-155.890878483232</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>9138.4156968689</v>
+        <v>9138.41571144072</v>
       </c>
       <c r="F45" t="n">
-        <v>11083.6085886646</v>
+        <v>11083.608610164</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2975.45238522816</v>
+        <v>-2979.50487105303</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4258.46128089362</v>
+        <v>4253.05753316556</v>
       </c>
       <c r="C46" t="n">
-        <v>395.375265266687</v>
+        <v>395.375252653696</v>
       </c>
       <c r="D46" t="n">
-        <v>-1588.56748973682</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>7890.88941693983</v>
+        <v>7890.88943142263</v>
       </c>
       <c r="F46" t="n">
-        <v>9874.83217194333</v>
+        <v>9874.83219359796</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1728.53871910638</v>
+        <v>-1733.94246683444</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3348.66280834746</v>
+        <v>3353.4962010883</v>
       </c>
       <c r="C47" t="n">
-        <v>-435.00665615564</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-2456.83184942486</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>7203.63075419238</v>
+        <v>7203.63076931036</v>
       </c>
       <c r="F47" t="n">
-        <v>9225.4559474616</v>
+        <v>9225.45596999224</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1128.33719165254</v>
+        <v>-1123.5037989117</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3299.73262789328</v>
+        <v>3309.30696551216</v>
       </c>
       <c r="C48" t="n">
-        <v>-147.695277829074</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-2206.63451102787</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>7631.16231317503</v>
+        <v>7631.1623293603</v>
       </c>
       <c r="F48" t="n">
-        <v>9690.10154637383</v>
+        <v>9690.10157020839</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1240.26737210672</v>
+        <v>-1230.69303448784</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3285.12433276754</v>
+        <v>3282.75118296616</v>
       </c>
       <c r="C49" t="n">
-        <v>-141.632740537472</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-2236.98773063273</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>7774.80685502442</v>
+        <v>7774.80687142385</v>
       </c>
       <c r="F49" t="n">
-        <v>9870.16184511968</v>
+        <v>9870.16186940043</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-457.875667232458</v>
+        <v>-460.248817033842</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2558.64880372879</v>
+        <v>2554.10102226337</v>
       </c>
       <c r="C2" t="n">
-        <v>1759.10134581248</v>
+        <v>1739.17348020312</v>
       </c>
       <c r="D2" t="n">
-        <v>1297.86140046276</v>
+        <v>1276.85835248462</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3691.75437406797</v>
+        <v>3676.33165698684</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>113.648803728793</v>
+        <v>109.101022263374</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2593.65579324119</v>
+        <v>2597.23487376181</v>
       </c>
       <c r="C3" t="n">
-        <v>1566.9811591713</v>
+        <v>1559.52085799588</v>
       </c>
       <c r="D3" t="n">
-        <v>1187.44148105791</v>
+        <v>1183.64951344664</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1660.65579324119</v>
+        <v>1664.23487376181</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4423.98754958893</v>
+        <v>4416.60559291829</v>
       </c>
       <c r="C4" t="n">
-        <v>3171.01636027756</v>
+        <v>3165.03960694311</v>
       </c>
       <c r="D4" t="n">
-        <v>2818.29453420417</v>
+        <v>2816.04143320464</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>915.98754958893</v>
+        <v>908.605592918292</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4984.28318047588</v>
+        <v>4989.05769394917</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-375.716819524117</v>
+        <v>-370.942306050834</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5738.72573712446</v>
+        <v>5744.65007810336</v>
       </c>
       <c r="C6" t="n">
-        <v>4262.65515492181</v>
+        <v>4301.21663657899</v>
       </c>
       <c r="D6" t="n">
-        <v>3841.26529886262</v>
+        <v>3851.34267036954</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>474.72573712446</v>
+        <v>480.650078103359</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,10 +587,10 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5982.51517326126</v>
+        <v>5987.98297822111</v>
       </c>
       <c r="C7" t="n">
-        <v>4562.15475544576</v>
+        <v>4580.58024703117</v>
       </c>
       <c r="D7" t="n">
         <v>4024.01929999012</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-210.484826738741</v>
+        <v>-205.017021778895</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5908.03531420015</v>
+        <v>5911.38237902578</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>936.035314200155</v>
+        <v>939.382379025783</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5127.44193041758</v>
+        <v>5136.39445964404</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>155.441930417579</v>
+        <v>164.394459644041</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3704.22153460847</v>
+        <v>3700.00165516157</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -692,7 +692,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5001.49945040601</v>
+        <v>5000.04276709215</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-787.778465391527</v>
+        <v>-791.998344838434</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2756.77511142768</v>
+        <v>2742.56824079948</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-449.224888572317</v>
+        <v>-463.431759200518</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2980.62733195151</v>
+        <v>2979.36432878185</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-630.372668048494</v>
+        <v>-631.635671218145</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3087.67613734416</v>
+        <v>3091.35024411299</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-606.323862655843</v>
+        <v>-602.649755887014</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2629.91875145186</v>
+        <v>2622.88347339437</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-545.081248548136</v>
+        <v>-552.116526605628</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2627.27818743429</v>
+        <v>2632.46465252311</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-797.721812565707</v>
+        <v>-792.535347476892</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4446.81207330879</v>
+        <v>4437.39497955556</v>
       </c>
       <c r="C16" t="n">
-        <v>2869.11511819411</v>
+        <v>2886.60339072815</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2773.18792669121</v>
+        <v>-2782.60502044444</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5017.59866218828</v>
+        <v>5025.12820290517</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2830.40133781172</v>
+        <v>-2822.87179709483</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,10 +939,10 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5774.62776879008</v>
+        <v>5785.08781019604</v>
       </c>
       <c r="C18" t="n">
-        <v>3939.23100243554</v>
+        <v>3974.86523006948</v>
       </c>
       <c r="D18" t="n">
         <v>3085.65630995226</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2321.37223120992</v>
+        <v>-2310.91218980396</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6000.68331311254</v>
+        <v>6010.797131454</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3669.31668688746</v>
+        <v>-3659.202868546</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5936.62372854517</v>
+        <v>5944.54721202949</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3285.37627145483</v>
+        <v>-3277.45278797051</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5239.52562174848</v>
+        <v>5253.33452449487</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1627.47437825152</v>
+        <v>-1613.66547550513</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3913.99061649278</v>
+        <v>3920.85801135977</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -1076,7 +1076,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>5978.51884185172</v>
+        <v>6026.76501089352</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2018.00938350722</v>
+        <v>-2011.14198864023</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2919.46966512094</v>
+        <v>2898.0504144503</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-702.530334879063</v>
+        <v>-723.9495855497</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3056.49579772203</v>
+        <v>3046.30590993045</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-592.504202277971</v>
+        <v>-602.69409006955</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3139.31679442257</v>
+        <v>3144.89526588405</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1779.68320557743</v>
+        <v>-1774.10473411595</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2700.32916732889</v>
+        <v>2691.63169428851</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1695.67083267111</v>
+        <v>-1704.36830571149</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2701.555498507</v>
+        <v>2707.16632124769</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1987.444501493</v>
+        <v>-1981.83367875231</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4489.26442157118</v>
+        <v>4482.422913852</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2166.73557842882</v>
+        <v>-2173.577086148</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5070.35677194511</v>
+        <v>5080.71316167371</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2053.64322805489</v>
+        <v>-2043.28683832629</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5809.07392277761</v>
+        <v>5823.22673982214</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3014.92607722239</v>
+        <v>-3000.77326017786</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6047.7427210897</v>
+        <v>6061.87246411206</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3895.2572789103</v>
+        <v>-3881.12753588794</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>5998.87203247826</v>
+        <v>6011.01386808144</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3684.12796752174</v>
+        <v>-3671.98613191856</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5325.89694174883</v>
+        <v>5340.21922025988</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2561.10305825117</v>
+        <v>-2546.78077974012</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4128.71945953184</v>
+        <v>4148.22252351995</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1182.28054046816</v>
+        <v>-1162.77747648005</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3134.06203268856</v>
+        <v>3114.51763734401</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>599.062032688556</v>
+        <v>579.51763734401</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3160.10831658819</v>
+        <v>3135.74258148268</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>591.108316588192</v>
+        <v>566.742581482679</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3209.30316530814</v>
+        <v>3212.22309621244</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1389.30316530814</v>
+        <v>1392.22309621244</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2770.58504949642</v>
+        <v>2759.92199785789</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>452.585049496417</v>
+        <v>441.921997857886</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2773.26518982328</v>
+        <v>2778.42784440527</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2888.73481017672</v>
+        <v>-2883.57215559473</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4531.32063943249</v>
+        <v>4530.92531528916</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2011.67936056751</v>
+        <v>-2012.07468471084</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5108.53787067711</v>
+        <v>5122.77697327965</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2568.46212932289</v>
+        <v>-2554.22302672035</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5848.33834160929</v>
+        <v>5866.10913885715</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3218.66165839071</v>
+        <v>-3200.89086114285</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6085.70295845326</v>
+        <v>6103.49759345003</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2240.29704154674</v>
+        <v>-2222.50240654997</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6027.40818959666</v>
+        <v>6043.32368687703</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3136.59181040334</v>
+        <v>-3120.67631312297</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5374.49512894697</v>
+        <v>5389.69270239897</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2979.50487105303</v>
+        <v>-2964.30729760103</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4253.05753316556</v>
+        <v>4275.81194968036</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1733.94246683444</v>
+        <v>-1711.18805031964</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3353.4962010883</v>
+        <v>3346.11887515032</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1123.5037989117</v>
+        <v>-1130.88112484968</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3309.30696551216</v>
+        <v>3273.86880762687</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1230.69303448784</v>
+        <v>-1266.13119237313</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3282.75118296616</v>
+        <v>3275.07690706682</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-460.248817033842</v>
+        <v>-467.923092933183</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2554.10102226337</v>
+        <v>2555.22214850378</v>
       </c>
       <c r="C2" t="n">
-        <v>1739.17348020312</v>
+        <v>1743.37403972035</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.85835248462</v>
+        <v>1280.88312680667</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3676.33165698684</v>
+        <v>3681.26877844585</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>109.101022263374</v>
+        <v>110.222148503781</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2597.23487376181</v>
+        <v>2597.49638362041</v>
       </c>
       <c r="C3" t="n">
-        <v>1559.52085799588</v>
+        <v>1560.58769315346</v>
       </c>
       <c r="D3" t="n">
-        <v>1183.64951344664</v>
+        <v>1186.10121510877</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1664.23487376181</v>
+        <v>1664.49638362041</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4416.60559291829</v>
+        <v>4414.9056151499</v>
       </c>
       <c r="C4" t="n">
-        <v>3165.03960694311</v>
+        <v>3157.81603849888</v>
       </c>
       <c r="D4" t="n">
-        <v>2816.04143320464</v>
+        <v>2808.94044563282</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>908.605592918292</v>
+        <v>906.905615149898</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4989.05769394917</v>
+        <v>4990.37131566918</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-370.942306050834</v>
+        <v>-369.628684330823</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5744.65007810336</v>
+        <v>5741.59408251857</v>
       </c>
       <c r="C6" t="n">
-        <v>4301.21663657899</v>
+        <v>4286.73455584564</v>
       </c>
       <c r="D6" t="n">
-        <v>3851.34267036954</v>
+        <v>3842.87151006306</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>480.650078103359</v>
+        <v>477.594082518573</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,10 +587,10 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5987.98297822111</v>
+        <v>5984.95544467332</v>
       </c>
       <c r="C7" t="n">
-        <v>4580.58024703117</v>
+        <v>4576.30137597937</v>
       </c>
       <c r="D7" t="n">
         <v>4024.01929999012</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-205.017021778895</v>
+        <v>-208.04455532668</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5911.38237902578</v>
+        <v>5910.68186337853</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>939.382379025783</v>
+        <v>938.68186337853</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5136.39445964404</v>
+        <v>5129.43375580138</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>164.394459644041</v>
+        <v>157.433755801384</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3700.00165516157</v>
+        <v>3706.12156607305</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -692,7 +692,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5000.04276709215</v>
+        <v>5008.12892526094</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-791.998344838434</v>
+        <v>-785.878433926947</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2742.56824079948</v>
+        <v>2748.77064436662</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-463.431759200518</v>
+        <v>-457.229355633384</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2979.36432878185</v>
+        <v>2983.12915677683</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-631.635671218145</v>
+        <v>-627.870843223168</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3091.35024411299</v>
+        <v>3093.39154033956</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-602.649755887014</v>
+        <v>-600.608459660443</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2622.88347339437</v>
+        <v>2625.70802482369</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-552.116526605628</v>
+        <v>-549.291975176315</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2632.46465252311</v>
+        <v>2633.47312104534</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-792.535347476892</v>
+        <v>-791.526878954662</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4437.39497955556</v>
+        <v>4433.73411459297</v>
       </c>
       <c r="C16" t="n">
-        <v>2886.60339072815</v>
+        <v>2863.079709259</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2782.60502044444</v>
+        <v>-2786.26588540703</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5025.12820290517</v>
+        <v>5026.99262560956</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2822.87179709483</v>
+        <v>-2821.00737439044</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5785.08781019604</v>
+        <v>5779.42662112342</v>
       </c>
       <c r="C18" t="n">
         <v>3974.86523006948</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2310.91218980396</v>
+        <v>-2316.57337887658</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6010.797131454</v>
+        <v>6004.73152874422</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3659.202868546</v>
+        <v>-3665.26847125578</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5944.54721202949</v>
+        <v>5941.08861073059</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3277.45278797051</v>
+        <v>-3280.91138926941</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5253.33452449487</v>
+        <v>5245.69238773845</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1613.66547550513</v>
+        <v>-1621.30761226155</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3920.85801135977</v>
+        <v>3915.02352487536</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -1076,7 +1076,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6026.76501089352</v>
+        <v>6018.59935900045</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2011.14198864023</v>
+        <v>-2016.97647512464</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2898.0504144503</v>
+        <v>2908.29699784213</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-723.9495855497</v>
+        <v>-713.703002157868</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3046.30590993045</v>
+        <v>3055.34389284321</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-602.69409006955</v>
+        <v>-593.656107156793</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3144.89526588405</v>
+        <v>3149.30937091482</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1774.10473411595</v>
+        <v>-1769.69062908518</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2691.63169428851</v>
+        <v>2696.65476749499</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1704.36830571149</v>
+        <v>-1699.34523250501</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2707.16632124769</v>
+        <v>2709.30991602845</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1981.83367875231</v>
+        <v>-1979.69008397155</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4482.422913852</v>
+        <v>4476.71349127572</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2173.577086148</v>
+        <v>-2179.28650872428</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5080.71316167371</v>
+        <v>5082.42689782692</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2043.28683832629</v>
+        <v>-2041.57310217308</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5823.22673982214</v>
+        <v>5815.52486278837</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3000.77326017786</v>
+        <v>-3008.47513721163</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6061.87246411206</v>
+        <v>6053.00337511718</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3881.12753588794</v>
+        <v>-3889.99662488282</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6011.01386808144</v>
+        <v>6004.60073919966</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3671.98613191856</v>
+        <v>-3678.39926080034</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5340.21922025988</v>
+        <v>5333.70617534132</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2546.78077974012</v>
+        <v>-2553.29382465868</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4148.22252351995</v>
+        <v>4134.45614157218</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1162.77747648005</v>
+        <v>-1176.54385842782</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3114.51763734401</v>
+        <v>3127.89732682456</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>579.51763734401</v>
+        <v>592.897326824562</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3135.74258148268</v>
+        <v>3152.63983680369</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>566.742581482679</v>
+        <v>583.639836803686</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3212.22309621244</v>
+        <v>3220.4066011882</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1392.22309621244</v>
+        <v>1400.4066011882</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2759.92199785789</v>
+        <v>2767.72837158677</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>441.921997857886</v>
+        <v>449.728371586774</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2778.42784440527</v>
+        <v>2782.05728511067</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2883.57215559473</v>
+        <v>-2879.94271488933</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4530.92531528916</v>
+        <v>4523.17101329208</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2012.07468471084</v>
+        <v>-2019.82898670792</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5122.77697327965</v>
+        <v>5123.81189797239</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2554.22302672035</v>
+        <v>-2553.18810202761</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5866.10913885715</v>
+        <v>5856.75102862987</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3200.89086114285</v>
+        <v>-3210.24897137013</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6103.49759345003</v>
+        <v>6092.18601367048</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2222.50240654997</v>
+        <v>-2233.81398632952</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6043.32368687703</v>
+        <v>6034.19512033109</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3120.67631312297</v>
+        <v>-3129.80487966891</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5389.69270239897</v>
+        <v>5382.84815066267</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2964.30729760103</v>
+        <v>-2971.15184933733</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4275.81194968036</v>
+        <v>4263.70931807919</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1711.18805031964</v>
+        <v>-1723.29068192081</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3346.11887515032</v>
+        <v>3349.13548913693</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1130.88112484968</v>
+        <v>-1127.86451086307</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3273.86880762687</v>
+        <v>3298.1434527773</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1266.13119237313</v>
+        <v>-1241.8565472227</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3275.07690706682</v>
+        <v>3290.41384559314</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-467.923092933183</v>
+        <v>-452.58615440686</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2555.22214850378</v>
+        <v>2555.86190580276</v>
       </c>
       <c r="C2" t="n">
-        <v>1743.37403972035</v>
+        <v>1746.51680746216</v>
       </c>
       <c r="D2" t="n">
-        <v>1280.88312680667</v>
+        <v>1284.38727592029</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3681.26877844585</v>
+        <v>3682.89731306533</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>110.222148503781</v>
+        <v>110.861905802765</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2597.49638362041</v>
+        <v>2597.11601201617</v>
       </c>
       <c r="C3" t="n">
-        <v>1560.58769315346</v>
+        <v>1560.32980619298</v>
       </c>
       <c r="D3" t="n">
-        <v>1186.10121510877</v>
+        <v>1187.16263611357</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1664.49638362041</v>
+        <v>1664.11601201617</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4414.9056151499</v>
+        <v>4414.86392809013</v>
       </c>
       <c r="C4" t="n">
-        <v>3157.81603849888</v>
+        <v>3160.41237418877</v>
       </c>
       <c r="D4" t="n">
-        <v>2808.94044563282</v>
+        <v>2808.48215093145</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>906.905615149898</v>
+        <v>906.863928090128</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4990.37131566918</v>
+        <v>4991.99817214351</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-369.628684330823</v>
+        <v>-368.001827856493</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5741.59408251857</v>
+        <v>5744.93963881063</v>
       </c>
       <c r="C6" t="n">
-        <v>4286.73455584564</v>
+        <v>4301.71445429965</v>
       </c>
       <c r="D6" t="n">
-        <v>3842.87151006306</v>
+        <v>3858.10812174163</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>477.594082518573</v>
+        <v>480.939638810634</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,10 +587,10 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5984.95544467332</v>
+        <v>5989.59140929632</v>
       </c>
       <c r="C7" t="n">
-        <v>4576.30137597937</v>
+        <v>4580.58024703117</v>
       </c>
       <c r="D7" t="n">
         <v>4024.01929999012</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-208.04455532668</v>
+        <v>-203.408590703682</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5910.68186337853</v>
+        <v>5917.60059505902</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>938.68186337853</v>
+        <v>945.600595059018</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5129.43375580138</v>
+        <v>5131.85832736541</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>157.433755801384</v>
+        <v>159.858327365415</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3706.12156607305</v>
+        <v>3704.9876910579</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -692,7 +692,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5008.12892526094</v>
+        <v>5001.21026220688</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-785.878433926947</v>
+        <v>-787.012308942096</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2748.77064436662</v>
+        <v>2748.91385512034</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-457.229355633384</v>
+        <v>-457.086144879656</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2983.12915677683</v>
+        <v>2983.48395961956</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-627.870843223168</v>
+        <v>-627.516040380441</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3093.39154033956</v>
+        <v>3093.78975912348</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-600.608459660443</v>
+        <v>-600.210240876522</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2625.70802482369</v>
+        <v>2626.85181662154</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-549.291975176315</v>
+        <v>-548.148183378459</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2633.47312104534</v>
+        <v>2632.94539689055</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-791.526878954662</v>
+        <v>-792.054603109448</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4433.73411459297</v>
+        <v>4433.77725324129</v>
       </c>
       <c r="C16" t="n">
-        <v>2863.079709259</v>
+        <v>2863.72961491753</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2786.26588540703</v>
+        <v>-2786.22274675871</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5026.99262560956</v>
+        <v>5029.69251033544</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2821.00737439044</v>
+        <v>-2818.30748966456</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5779.42662112342</v>
+        <v>5784.15836433105</v>
       </c>
       <c r="C18" t="n">
         <v>3974.86523006948</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2316.57337887658</v>
+        <v>-2311.84163566895</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6004.73152874422</v>
+        <v>6011.56378789393</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3665.26847125578</v>
+        <v>-3658.43621210607</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5941.08861073059</v>
+        <v>5950.86898850239</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3280.91138926941</v>
+        <v>-3271.13101149761</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5245.69238773845</v>
+        <v>5253.61628283523</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1621.30761226155</v>
+        <v>-1613.38371716477</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3915.02352487536</v>
+        <v>3915.35760408579</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -1076,7 +1076,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6018.59935900045</v>
+        <v>6016.49996569341</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2016.97647512464</v>
+        <v>-2016.64239591421</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2908.29699784213</v>
+        <v>2907.80603321621</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-713.703002157868</v>
+        <v>-714.193966783787</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3055.34389284321</v>
+        <v>3056.27125451792</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-593.656107156793</v>
+        <v>-592.728745482083</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3149.30937091482</v>
+        <v>3150.22916985425</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1769.69062908518</v>
+        <v>-1768.77083014575</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2696.65476749499</v>
+        <v>2698.27895619529</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1699.34523250501</v>
+        <v>-1697.72104380471</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2709.30991602845</v>
+        <v>2708.80058698205</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1979.69008397155</v>
+        <v>-1980.19941301795</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4476.71349127572</v>
+        <v>4476.92445564253</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2179.28650872428</v>
+        <v>-2179.07554435747</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5082.42689782692</v>
+        <v>5085.88282413028</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2041.57310217308</v>
+        <v>-2038.11717586972</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5815.52486278837</v>
+        <v>5821.06362398258</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3008.47513721163</v>
+        <v>-3002.93637601742</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6053.00337511718</v>
+        <v>6060.90849302624</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3889.99662488282</v>
+        <v>-3882.09150697376</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6004.60073919966</v>
+        <v>6015.63213658517</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3678.39926080034</v>
+        <v>-3667.36786341483</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5333.70617534132</v>
+        <v>5346.01778107532</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2553.29382465868</v>
+        <v>-2540.98221892468</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4134.45614157218</v>
+        <v>4140.06256118964</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1176.54385842782</v>
+        <v>-1170.93743881036</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3127.89732682456</v>
+        <v>3127.78491675039</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>592.897326824562</v>
+        <v>592.784916750388</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3152.63983680369</v>
+        <v>3153.80679965282</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>583.639836803686</v>
+        <v>584.806799652824</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3220.4066011882</v>
+        <v>3222.04124961728</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1400.4066011882</v>
+        <v>1402.04124961728</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2767.72837158677</v>
+        <v>2769.88688531224</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>449.728371586774</v>
+        <v>451.886885312244</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2782.05728511067</v>
+        <v>2781.70227141035</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2879.94271488933</v>
+        <v>-2880.29772858965</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4523.17101329208</v>
+        <v>4523.61341418967</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2019.82898670792</v>
+        <v>-2019.38658581033</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5123.81189797239</v>
+        <v>5127.84591068258</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2553.18810202761</v>
+        <v>-2549.15408931742</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5856.75102862987</v>
+        <v>5862.82875837794</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3210.24897137013</v>
+        <v>-3204.17124162206</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6092.18601367048</v>
+        <v>6100.68300305939</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2233.81398632952</v>
+        <v>-2225.31699694061</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6034.19512033109</v>
+        <v>6045.80100877859</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3129.80487966891</v>
+        <v>-3118.19899122141</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5382.84815066267</v>
+        <v>5397.30604090716</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2971.15184933733</v>
+        <v>-2956.69395909284</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4263.70931807919</v>
+        <v>4276.06346763232</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1723.29068192081</v>
+        <v>-1710.93653236768</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3349.13548913693</v>
+        <v>3352.29719210043</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1127.86451086307</v>
+        <v>-1124.70280789957</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3298.1434527773</v>
+        <v>3299.49927810549</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1241.8565472227</v>
+        <v>-1240.50072189451</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3290.41384559314</v>
+        <v>3292.90254007217</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-452.58615440686</v>
+        <v>-450.097459927832</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2555.86190580276</v>
+        <v>2559.04599375692</v>
       </c>
       <c r="C2" t="n">
-        <v>1746.51680746216</v>
+        <v>1757.90062651626</v>
       </c>
       <c r="D2" t="n">
-        <v>1284.38727592029</v>
+        <v>1294.93376780353</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3682.89731306533</v>
+        <v>3697.78963763538</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>110.861905802765</v>
+        <v>114.045993756924</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2597.11601201617</v>
+        <v>2600.20410888476</v>
       </c>
       <c r="C3" t="n">
-        <v>1560.32980619298</v>
+        <v>1569.39222094942</v>
       </c>
       <c r="D3" t="n">
-        <v>1187.16263611357</v>
+        <v>1192.18072803278</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1664.11601201617</v>
+        <v>1667.20410888476</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4414.86392809013</v>
+        <v>4407.26307718647</v>
       </c>
       <c r="C4" t="n">
-        <v>3160.41237418877</v>
+        <v>3136.16806250089</v>
       </c>
       <c r="D4" t="n">
-        <v>2808.48215093145</v>
+        <v>2771.38697757872</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>906.863928090128</v>
+        <v>899.263077186469</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4991.99817214351</v>
+        <v>4992.3184789361</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-368.001827856493</v>
+        <v>-367.681521063898</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5744.93963881063</v>
+        <v>5748.03384883813</v>
       </c>
       <c r="C6" t="n">
-        <v>4301.71445429965</v>
+        <v>4307.80863907613</v>
       </c>
       <c r="D6" t="n">
-        <v>3858.10812174163</v>
+        <v>3855.74897203746</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>480.939638810634</v>
+        <v>484.033848838129</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5989.59140929632</v>
+        <v>5992.87815186382</v>
       </c>
       <c r="C7" t="n">
         <v>4580.58024703117</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-203.408590703682</v>
+        <v>-200.121848136179</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5917.60059505902</v>
+        <v>5916.99103543521</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>945.600595059018</v>
+        <v>944.991035435214</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5131.85832736541</v>
+        <v>5136.10748064487</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>159.858327365415</v>
+        <v>164.107480644872</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3704.9876910579</v>
+        <v>3709.97783653034</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -692,7 +692,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5001.21026220688</v>
+        <v>5007.03240538486</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-787.012308942096</v>
+        <v>-782.02216346966</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2748.91385512034</v>
+        <v>2753.27085564588</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-457.086144879656</v>
+        <v>-452.729144354117</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2983.48395961956</v>
+        <v>2985.50682273381</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-627.516040380441</v>
+        <v>-625.493177266195</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3093.78975912348</v>
+        <v>3094.28489011417</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-600.210240876522</v>
+        <v>-599.715109885831</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2626.85181662154</v>
+        <v>2632.78302049675</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-548.148183378459</v>
+        <v>-542.216979503251</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2632.94539689055</v>
+        <v>2638.67215888767</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-792.054603109448</v>
+        <v>-786.327841112335</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4433.77725324129</v>
+        <v>4421.06011322809</v>
       </c>
       <c r="C16" t="n">
-        <v>2863.72961491753</v>
+        <v>2795.86082244253</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2786.22274675871</v>
+        <v>-2798.93988677191</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5029.69251033544</v>
+        <v>5028.53253364927</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2818.30748966456</v>
+        <v>-2819.46746635073</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5784.15836433105</v>
+        <v>5789.00908459884</v>
       </c>
       <c r="C18" t="n">
         <v>3974.86523006948</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2311.84163566895</v>
+        <v>-2306.99091540116</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6011.56378789393</v>
+        <v>6017.51229140318</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3658.43621210607</v>
+        <v>-3652.48770859682</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5950.86898850239</v>
+        <v>5952.83372649293</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3271.13101149761</v>
+        <v>-3269.16627350707</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5253.61628283523</v>
+        <v>5259.14856388993</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1613.38371716477</v>
+        <v>-1607.85143611007</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3915.35760408579</v>
+        <v>3926.60802602105</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -1076,7 +1076,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6016.49996569341</v>
+        <v>6023.95848653366</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2016.64239591421</v>
+        <v>-2005.39197397895</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2907.80603321621</v>
+        <v>2917.95099655601</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-714.193966783787</v>
+        <v>-704.049003443993</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3056.27125451792</v>
+        <v>3062.64687077912</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-592.728745482083</v>
+        <v>-586.353129220883</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3150.22916985425</v>
+        <v>3151.80543593795</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1768.77083014575</v>
+        <v>-1767.19456406205</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2698.27895619529</v>
+        <v>2706.7385067417</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1697.72104380471</v>
+        <v>-1689.2614932583</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2708.80058698205</v>
+        <v>2716.9259676134</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1980.19941301795</v>
+        <v>-1972.0740323866</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4476.92445564253</v>
+        <v>4460.50586582913</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2179.07554435747</v>
+        <v>-2195.49413417087</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5085.88282413028</v>
+        <v>5082.58658402129</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2038.11717586972</v>
+        <v>-2041.41341597871</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5821.06362398258</v>
+        <v>5826.32211268383</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3002.93637601742</v>
+        <v>-2997.67788731617</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6060.90849302624</v>
+        <v>6068.7094963038</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3882.09150697376</v>
+        <v>-3874.2905036962</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6015.63213658517</v>
+        <v>6020.26793722534</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3667.36786341483</v>
+        <v>-3662.73206277466</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5346.01778107532</v>
+        <v>5349.53681677298</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2540.98221892468</v>
+        <v>-2537.46318322702</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4140.06256118964</v>
+        <v>4154.3057089762</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1170.93743881036</v>
+        <v>-1156.6942910238</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3127.78491675039</v>
+        <v>3144.88223567034</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>592.784916750388</v>
+        <v>609.882235670339</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3153.80679965282</v>
+        <v>3167.76421784172</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>584.806799652824</v>
+        <v>598.764217841721</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3222.04124961728</v>
+        <v>3226.38088384895</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1402.04124961728</v>
+        <v>1406.38088384895</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2769.88688531224</v>
+        <v>2780.9703501829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>451.886885312244</v>
+        <v>462.970350182902</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2781.70227141035</v>
+        <v>2792.14248658469</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2880.29772858965</v>
+        <v>-2869.85751341531</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4523.61341418967</v>
+        <v>4504.44877751055</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2019.38658581033</v>
+        <v>-2038.55122248945</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5127.84591068258</v>
+        <v>5122.28034452969</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2549.15408931742</v>
+        <v>-2554.71965547031</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5862.82875837794</v>
+        <v>5867.63673621752</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3204.17124162206</v>
+        <v>-3199.36326378248</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6100.68300305939</v>
+        <v>6109.51069403987</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2225.31699694061</v>
+        <v>-2216.48930596013</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6045.80100877859</v>
+        <v>6052.51674184993</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3118.19899122141</v>
+        <v>-3111.48325815007</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5397.30604090716</v>
+        <v>5399.91122667383</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2956.69395909284</v>
+        <v>-2954.08877332617</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4276.06346763232</v>
+        <v>4285.23073242999</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1710.93653236768</v>
+        <v>-1701.76926757001</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3352.29719210043</v>
+        <v>3376.2960643595</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1124.70280789957</v>
+        <v>-1100.7039356405</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3299.49927810549</v>
+        <v>3324.48135460924</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1240.50072189451</v>
+        <v>-1215.51864539076</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3292.90254007217</v>
+        <v>3303.88545401128</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-450.097459927832</v>
+        <v>-439.114545988722</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2559.04599375692</v>
+        <v>2531.46398914431</v>
       </c>
       <c r="C2" t="n">
-        <v>1757.90062651626</v>
+        <v>1991.94667052589</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.93376780353</v>
+        <v>1788.05116420935</v>
       </c>
       <c r="E2" t="n">
-        <v>3271.60836224899</v>
+        <v>3072.3343092739</v>
       </c>
       <c r="F2" t="n">
-        <v>3697.78963763538</v>
+        <v>3363.8998949101</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>114.045993756924</v>
+        <v>86.4639891443148</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2600.20410888476</v>
+        <v>2587.90740269787</v>
       </c>
       <c r="C3" t="n">
-        <v>1569.39222094942</v>
+        <v>2106.4297907211</v>
       </c>
       <c r="D3" t="n">
-        <v>1192.18072803278</v>
+        <v>1857.02570822349</v>
       </c>
       <c r="E3" t="n">
-        <v>3476.76635922184</v>
+        <v>3347.22940887739</v>
       </c>
       <c r="F3" t="n">
-        <v>3857.71328044235</v>
+        <v>3692.55480828759</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1667.20410888476</v>
+        <v>1654.90740269787</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4407.26307718647</v>
+        <v>4609.53245017568</v>
       </c>
       <c r="C4" t="n">
-        <v>3136.16806250089</v>
+        <v>3685.40524313014</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.38697757872</v>
+        <v>3485.59788473942</v>
       </c>
       <c r="E4" t="n">
-        <v>5596.16176007132</v>
+        <v>6059.97763513824</v>
       </c>
       <c r="F4" t="n">
-        <v>6030.57692324318</v>
+        <v>6609.42775988972</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>899.263077186469</v>
+        <v>1101.53245017568</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4992.3184789361</v>
+        <v>5251.78196392506</v>
       </c>
       <c r="C5" t="n">
-        <v>3698.61255729682</v>
+        <v>4160.45266010341</v>
       </c>
       <c r="D5" t="n">
-        <v>3193.37832837856</v>
+        <v>3868.95154727896</v>
       </c>
       <c r="E5" t="n">
-        <v>6480.08200811983</v>
+        <v>7086.92421038528</v>
       </c>
       <c r="F5" t="n">
-        <v>6973.0112930434</v>
+        <v>7752.38689477534</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-367.681521063898</v>
+        <v>-108.218036074941</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5748.03384883813</v>
+        <v>6220.48657809168</v>
       </c>
       <c r="C6" t="n">
-        <v>4307.80863907613</v>
+        <v>4871.12044584662</v>
       </c>
       <c r="D6" t="n">
-        <v>3855.74897203746</v>
+        <v>4472.06523132693</v>
       </c>
       <c r="E6" t="n">
-        <v>7364.26587048967</v>
+        <v>8215.79409716881</v>
       </c>
       <c r="F6" t="n">
-        <v>7909.46494044199</v>
+        <v>9004.07060518214</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>484.033848838129</v>
+        <v>956.486578091676</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5992.87815186382</v>
+        <v>6674.08093117659</v>
       </c>
       <c r="C7" t="n">
-        <v>4580.58024703117</v>
+        <v>5190.68248524955</v>
       </c>
       <c r="D7" t="n">
-        <v>4024.01929999012</v>
+        <v>4615.31545913593</v>
       </c>
       <c r="E7" t="n">
-        <v>7687.94166416404</v>
+        <v>8670.22519575541</v>
       </c>
       <c r="F7" t="n">
-        <v>8280.82004277006</v>
+        <v>9544.91491462409</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-200.121848136179</v>
+        <v>481.080931176587</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5916.99103543521</v>
+        <v>6602.20105528193</v>
       </c>
       <c r="C8" t="n">
-        <v>4508.01441521917</v>
+        <v>4956.81992629341</v>
       </c>
       <c r="D8" t="n">
-        <v>3930.19074074789</v>
+        <v>4366.3062571446</v>
       </c>
       <c r="E8" t="n">
-        <v>7472.82944178799</v>
+        <v>8416.9674434498</v>
       </c>
       <c r="F8" t="n">
-        <v>8109.82827833334</v>
+        <v>9334.48384481398</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>944.991035435214</v>
+        <v>1630.20105528193</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5136.10748064487</v>
+        <v>5738.29698782305</v>
       </c>
       <c r="C9" t="n">
-        <v>3704.75311686093</v>
+        <v>4083.83189494892</v>
       </c>
       <c r="D9" t="n">
-        <v>3107.20703618962</v>
+        <v>3531.60971130428</v>
       </c>
       <c r="E9" t="n">
-        <v>6498.24065197739</v>
+        <v>7257.74396104519</v>
       </c>
       <c r="F9" t="n">
-        <v>7176.4959606199</v>
+        <v>8151.83935047934</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>164.107480644872</v>
+        <v>766.296987823051</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3709.97783653034</v>
+        <v>4036.64574687905</v>
       </c>
       <c r="C10" t="n">
-        <v>2280.91237764028</v>
+        <v>2672.58054715183</v>
       </c>
       <c r="D10" t="n">
-        <v>1563.77012561258</v>
+        <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5007.03240538486</v>
+        <v>5294.05431899279</v>
       </c>
       <c r="F10" t="n">
-        <v>5707.48255306939</v>
+        <v>6016.43089291314</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-782.02216346966</v>
+        <v>-455.354253120952</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2753.27085564588</v>
+        <v>2987.67853328369</v>
       </c>
       <c r="C11" t="n">
-        <v>1270.95727147084</v>
+        <v>1864.16735152256</v>
       </c>
       <c r="D11" t="n">
-        <v>516.930908811685</v>
+        <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4119.73668196159</v>
+        <v>4086.75304240855</v>
       </c>
       <c r="F11" t="n">
-        <v>4873.76304462074</v>
+        <v>4708.01462847304</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-452.729144354117</v>
+        <v>-218.321466716305</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2985.50682273381</v>
+        <v>3076.8729223493</v>
       </c>
       <c r="C12" t="n">
-        <v>1485.16038457302</v>
+        <v>2120.53544403332</v>
       </c>
       <c r="D12" t="n">
-        <v>695.97187634028</v>
+        <v>1664.28601663855</v>
       </c>
       <c r="E12" t="n">
-        <v>4466.78554330187</v>
+        <v>4446.47093339221</v>
       </c>
       <c r="F12" t="n">
-        <v>5255.9740515346</v>
+        <v>5230.88170322999</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-625.493177266195</v>
+        <v>-534.127077650695</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3094.28489011417</v>
+        <v>3160.85311968825</v>
       </c>
       <c r="C13" t="n">
-        <v>1495.37848461347</v>
+        <v>2176.18727763944</v>
       </c>
       <c r="D13" t="n">
-        <v>672.520992798423</v>
+        <v>1695.79731483761</v>
       </c>
       <c r="E13" t="n">
-        <v>4604.20809129182</v>
+        <v>4644.70233259454</v>
       </c>
       <c r="F13" t="n">
-        <v>5427.06558310687</v>
+        <v>5481.50002826413</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-599.715109885831</v>
+        <v>-533.146880311748</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2632.78302049675</v>
+        <v>2671.90011414289</v>
       </c>
       <c r="C14" t="n">
-        <v>914.535566587633</v>
+        <v>1630.70239110265</v>
       </c>
       <c r="D14" t="n">
-        <v>59.3413209464643</v>
+        <v>1214.16590511799</v>
       </c>
       <c r="E14" t="n">
-        <v>4232.71479488659</v>
+        <v>3886.333045914</v>
       </c>
       <c r="F14" t="n">
-        <v>5000.73058302548</v>
+        <v>4666.07259729171</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-542.216979503251</v>
+        <v>-503.099885857114</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2638.67215888767</v>
+        <v>2732.62105426294</v>
       </c>
       <c r="C15" t="n">
-        <v>1109.73360437002</v>
+        <v>1739.511421226</v>
       </c>
       <c r="D15" t="n">
-        <v>223.381561601806</v>
+        <v>1309.75218349487</v>
       </c>
       <c r="E15" t="n">
-        <v>4458.45133484799</v>
+        <v>4368.68298326276</v>
       </c>
       <c r="F15" t="n">
-        <v>5344.80337761621</v>
+        <v>5238.55536039091</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-786.327841112335</v>
+        <v>-692.378945737056</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4421.06011322809</v>
+        <v>4579.38086213995</v>
       </c>
       <c r="C16" t="n">
-        <v>2795.86082244253</v>
+        <v>2857.67405792445</v>
       </c>
       <c r="D16" t="n">
-        <v>2104.9209996519</v>
+        <v>2530.05487648809</v>
       </c>
       <c r="E16" t="n">
-        <v>6506.7493935158</v>
+        <v>7405.78804909315</v>
       </c>
       <c r="F16" t="n">
-        <v>7423.2005322357</v>
+        <v>8611.05335181826</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2798.93988677191</v>
+        <v>-2640.61913786005</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5028.53253364927</v>
+        <v>5465.15115904722</v>
       </c>
       <c r="C17" t="n">
-        <v>3212.30103585908</v>
+        <v>3780.97978024499</v>
       </c>
       <c r="D17" t="n">
-        <v>2353.56278394553</v>
+        <v>3039.60259796516</v>
       </c>
       <c r="E17" t="n">
-        <v>7335.18343548591</v>
+        <v>8494.68924107114</v>
       </c>
       <c r="F17" t="n">
-        <v>8280.77607272598</v>
+        <v>9836.45052982079</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2819.46746635073</v>
+        <v>-2382.84884095278</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5789.00908459884</v>
+        <v>6512.96010083414</v>
       </c>
       <c r="C18" t="n">
-        <v>3974.86523006948</v>
+        <v>4481.40955458169</v>
       </c>
       <c r="D18" t="n">
-        <v>3085.65630995226</v>
+        <v>3632.091522185</v>
       </c>
       <c r="E18" t="n">
-        <v>8174.03037774653</v>
+        <v>9689.70911060613</v>
       </c>
       <c r="F18" t="n">
-        <v>9147.89288423513</v>
+        <v>11176.3123109961</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2306.99091540116</v>
+        <v>-1583.03989916586</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6017.51229140318</v>
+        <v>7045.60055612493</v>
       </c>
       <c r="C19" t="n">
-        <v>4058.55539256903</v>
+        <v>4597.30181783763</v>
       </c>
       <c r="D19" t="n">
-        <v>3140.97834003659</v>
+        <v>3707.33132005967</v>
       </c>
       <c r="E19" t="n">
-        <v>8459.53378273635</v>
+        <v>10141.1914479731</v>
       </c>
       <c r="F19" t="n">
-        <v>9460.86835593648</v>
+        <v>11708.6015989006</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3652.48770859682</v>
+        <v>-2624.39944387507</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5952.83372649293</v>
+        <v>7039.66089800196</v>
       </c>
       <c r="C20" t="n">
-        <v>4015.74336863362</v>
+        <v>4381.89567560406</v>
       </c>
       <c r="D20" t="n">
-        <v>3071.25974540014</v>
+        <v>3491.54840414504</v>
       </c>
       <c r="E20" t="n">
-        <v>8211.58573614634</v>
+        <v>9822.9014126496</v>
       </c>
       <c r="F20" t="n">
-        <v>9239.65853192857</v>
+        <v>11403.4686612484</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3269.16627350707</v>
+        <v>-2182.33910199804</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5259.14856388993</v>
+        <v>6197.17498802989</v>
       </c>
       <c r="C21" t="n">
-        <v>3168.01097141081</v>
+        <v>3572.24646133236</v>
       </c>
       <c r="D21" t="n">
-        <v>2171.54818529046</v>
+        <v>2763.55358773768</v>
       </c>
       <c r="E21" t="n">
-        <v>7208.29054674549</v>
+        <v>8519.00216098006</v>
       </c>
       <c r="F21" t="n">
-        <v>8262.42356461806</v>
+        <v>10015.9782080162</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1607.85143611007</v>
+        <v>-669.825011970112</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3926.60802602105</v>
+        <v>4671.72858364992</v>
       </c>
       <c r="C22" t="n">
-        <v>1596.28075551273</v>
+        <v>2274.99752473612</v>
       </c>
       <c r="D22" t="n">
-        <v>516.716414998119</v>
+        <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>6023.95848653366</v>
+        <v>7240.39542434654</v>
       </c>
       <c r="F22" t="n">
-        <v>6754.53626368385</v>
+        <v>7632.85290640664</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2005.39197397895</v>
+        <v>-1260.27141635008</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2917.95099655601</v>
+        <v>3269.99076264317</v>
       </c>
       <c r="C23" t="n">
-        <v>609.066428788389</v>
+        <v>1543.19149678273</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>4860.05349532693</v>
+        <v>4865.72193442731</v>
       </c>
       <c r="F23" t="n">
-        <v>5886.03773432718</v>
+        <v>6016.79481331413</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-704.049003443993</v>
+        <v>-352.009237356833</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3062.64687077912</v>
+        <v>3182.01354032148</v>
       </c>
       <c r="C24" t="n">
-        <v>843.790364101251</v>
+        <v>1784.72864932199</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1217.10518555377</v>
       </c>
       <c r="E24" t="n">
-        <v>5288.80014197051</v>
+        <v>5345.4804897291</v>
       </c>
       <c r="F24" t="n">
-        <v>6331.89193682957</v>
+        <v>6584.87057679468</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-586.353129220883</v>
+        <v>-466.986459678516</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3151.80543593795</v>
+        <v>3240.50084449602</v>
       </c>
       <c r="C25" t="n">
-        <v>872.665392514946</v>
+        <v>1829.00664776947</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1240.28644452059</v>
       </c>
       <c r="E25" t="n">
-        <v>5385.31207200996</v>
+        <v>5548.17988608299</v>
       </c>
       <c r="F25" t="n">
-        <v>6451.45147053987</v>
+        <v>6840.45062245375</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1767.19456406205</v>
+        <v>-1678.49915550398</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2706.7385067417</v>
+        <v>2837.81896037123</v>
       </c>
       <c r="C26" t="n">
-        <v>308.882650776172</v>
+        <v>1423.24887290613</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>900.410172952505</v>
       </c>
       <c r="E26" t="n">
-        <v>5197.79483594461</v>
+        <v>4747.48182214746</v>
       </c>
       <c r="F26" t="n">
-        <v>6333.85762244382</v>
+        <v>6019.09574740309</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1689.2614932583</v>
+        <v>-1558.18103962877</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2716.9259676134</v>
+        <v>2897.89688619167</v>
       </c>
       <c r="C27" t="n">
-        <v>519.769590278987</v>
+        <v>1434.76508825466</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>895.199325928177</v>
       </c>
       <c r="E27" t="n">
-        <v>5198.66437201651</v>
+        <v>5212.1253185196</v>
       </c>
       <c r="F27" t="n">
-        <v>6388.17726943355</v>
+        <v>6512.12694975406</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1972.0740323866</v>
+        <v>-1791.10311380833</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4460.50586582913</v>
+        <v>4453.36793307685</v>
       </c>
       <c r="C28" t="n">
-        <v>2379.12502099825</v>
+        <v>2147.2310758301</v>
       </c>
       <c r="D28" t="n">
-        <v>1144.87238540103</v>
+        <v>1863.77393424052</v>
       </c>
       <c r="E28" t="n">
-        <v>7082.21666327663</v>
+        <v>8519.52465684769</v>
       </c>
       <c r="F28" t="n">
-        <v>8303.30177305743</v>
+        <v>10256.408533646</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2195.49413417087</v>
+        <v>-2202.63206692315</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5082.58658402129</v>
+        <v>5625.09996195795</v>
       </c>
       <c r="C29" t="n">
-        <v>2684.47444578355</v>
+        <v>3296.00387173334</v>
       </c>
       <c r="D29" t="n">
-        <v>1410.48227289405</v>
+        <v>2343.11284856902</v>
       </c>
       <c r="E29" t="n">
-        <v>7897.19884481997</v>
+        <v>9679.54037829963</v>
       </c>
       <c r="F29" t="n">
-        <v>9140.30446835725</v>
+        <v>11577.9147412203</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2041.41341597871</v>
+        <v>-1498.90003804205</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5826.32211268383</v>
+        <v>6567.43121020893</v>
       </c>
       <c r="C30" t="n">
-        <v>3384.15643212497</v>
+        <v>3943.60404301965</v>
       </c>
       <c r="D30" t="n">
-        <v>2073.51268857387</v>
+        <v>2854.30301121725</v>
       </c>
       <c r="E30" t="n">
-        <v>8723.51632249309</v>
+        <v>10947.5111749827</v>
       </c>
       <c r="F30" t="n">
-        <v>9988.25911737735</v>
+        <v>13016.0442543718</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2997.67788731617</v>
+        <v>-2256.56878979107</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6068.7094963038</v>
+        <v>7085.52681178498</v>
       </c>
       <c r="C31" t="n">
-        <v>3505.68264104479</v>
+        <v>4049.31326272684</v>
       </c>
       <c r="D31" t="n">
-        <v>2160.43600895635</v>
+        <v>2917.30065609826</v>
       </c>
       <c r="E31" t="n">
-        <v>8997.30974843233</v>
+        <v>11414.5143524357</v>
       </c>
       <c r="F31" t="n">
-        <v>10283.3257215653</v>
+        <v>13567.887417529</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3874.2905036962</v>
+        <v>-2857.47318821502</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6020.26793722534</v>
+        <v>6920.86954434931</v>
       </c>
       <c r="C32" t="n">
-        <v>3509.73564091691</v>
+        <v>3846.91026639935</v>
       </c>
       <c r="D32" t="n">
-        <v>2131.34611334552</v>
+        <v>2726.75566049589</v>
       </c>
       <c r="E32" t="n">
-        <v>8738.38396451946</v>
+        <v>11057.9120193171</v>
       </c>
       <c r="F32" t="n">
-        <v>10095.8047672936</v>
+        <v>13208.9300801451</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3662.73206277466</v>
+        <v>-2762.13045565069</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5349.53681677298</v>
+        <v>6179.01571224011</v>
       </c>
       <c r="C33" t="n">
-        <v>2604.02843513953</v>
+        <v>3095.90185126986</v>
       </c>
       <c r="D33" t="n">
-        <v>1193.60986136751</v>
+        <v>2097.16758041329</v>
       </c>
       <c r="E33" t="n">
-        <v>7932.71665098076</v>
+        <v>9645.48706946033</v>
       </c>
       <c r="F33" t="n">
-        <v>9343.13522475278</v>
+        <v>11672.1026595921</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2537.46318322702</v>
+        <v>-1707.98428775989</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4154.3057089762</v>
+        <v>4435.83623215558</v>
       </c>
       <c r="C34" t="n">
-        <v>1089.52914902542</v>
+        <v>1908.87651100061</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>6688.70186071451</v>
+        <v>7196.2425014789</v>
       </c>
       <c r="F34" t="n">
-        <v>8130.24726991574</v>
+        <v>8948.05095962559</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1156.6942910238</v>
+        <v>-875.16376784442</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3144.88223567034</v>
+        <v>3238.97752704646</v>
       </c>
       <c r="C35" t="n">
-        <v>111.503518432598</v>
+        <v>1251.3782561686</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>5976.74279648213</v>
+        <v>5670.92569293253</v>
       </c>
       <c r="F35" t="n">
-        <v>7448.64811867015</v>
+        <v>7309.70741139115</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>609.882235670339</v>
+        <v>703.977527046455</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3167.76421784172</v>
+        <v>3158.30316956083</v>
       </c>
       <c r="C36" t="n">
-        <v>354.926773711633</v>
+        <v>1464.35462556352</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>809.184404188322</v>
       </c>
       <c r="E36" t="n">
-        <v>6365.9394959068</v>
+        <v>6185.03659412854</v>
       </c>
       <c r="F36" t="n">
-        <v>7867.52882582874</v>
+        <v>8073.7832870939</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>598.764217841721</v>
+        <v>589.303169560828</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3226.38088384895</v>
+        <v>3304.20350540051</v>
       </c>
       <c r="C37" t="n">
-        <v>392.056211914838</v>
+        <v>1501.83211585826</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>825.299313086099</v>
       </c>
       <c r="E37" t="n">
-        <v>6508.03696610431</v>
+        <v>6396.65240871717</v>
       </c>
       <c r="F37" t="n">
-        <v>8038.69915326723</v>
+        <v>8363.36886363067</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1406.38088384895</v>
+        <v>1484.20350540051</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2780.9703501829</v>
+        <v>2923.18423114309</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1142.63294805888</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>561.880191489424</v>
       </c>
       <c r="E38" t="n">
-        <v>6312.9927817323</v>
+        <v>5734.84349202723</v>
       </c>
       <c r="F38" t="n">
-        <v>7924.4608210566</v>
+        <v>7668.67899565738</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>462.970350182902</v>
+        <v>605.18423114309</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2792.14248658469</v>
+        <v>2915.55730604241</v>
       </c>
       <c r="C39" t="n">
-        <v>21.1720384087052</v>
+        <v>1151.79777241534</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>556.918095089054</v>
       </c>
       <c r="E39" t="n">
-        <v>6348.43341868118</v>
+        <v>6015.87578026414</v>
       </c>
       <c r="F39" t="n">
-        <v>8023.15834353548</v>
+        <v>7936.57714599286</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2869.85751341531</v>
+        <v>-2746.44269395759</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4504.44877751055</v>
+        <v>4611.04577870867</v>
       </c>
       <c r="C40" t="n">
-        <v>1669.54752072239</v>
+        <v>2106.06003224906</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1448.3602131735</v>
       </c>
       <c r="E40" t="n">
-        <v>8200.10360467095</v>
+        <v>9568.36934699627</v>
       </c>
       <c r="F40" t="n">
-        <v>9928.63738724032</v>
+        <v>11800.398602422</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2038.55122248945</v>
+        <v>-1931.95422129133</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5122.28034452969</v>
+        <v>5657.48310493588</v>
       </c>
       <c r="C41" t="n">
-        <v>1932.26686118833</v>
+        <v>2826.46371836748</v>
       </c>
       <c r="D41" t="n">
-        <v>155.407600399623</v>
+        <v>1722.85011950393</v>
       </c>
       <c r="E41" t="n">
-        <v>8645.40094793755</v>
+        <v>10796.6579388954</v>
       </c>
       <c r="F41" t="n">
-        <v>10422.2602087262</v>
+        <v>13213.4158047393</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2554.71965547031</v>
+        <v>-2019.51689506412</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5867.63673621752</v>
+        <v>6560.71901484822</v>
       </c>
       <c r="C42" t="n">
-        <v>2627.20828193442</v>
+        <v>3418.60061292887</v>
       </c>
       <c r="D42" t="n">
-        <v>805.434016645814</v>
+        <v>2151.34369420497</v>
       </c>
       <c r="E42" t="n">
-        <v>9510.03529505586</v>
+        <v>12134.7960344282</v>
       </c>
       <c r="F42" t="n">
-        <v>11331.8095603445</v>
+        <v>14745.3163759717</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3199.36326378248</v>
+        <v>-2506.28098515178</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6109.51069403987</v>
+        <v>7014.65305149414</v>
       </c>
       <c r="C43" t="n">
-        <v>2728.52603772469</v>
+        <v>3513.08387032542</v>
       </c>
       <c r="D43" t="n">
-        <v>864.111066414664</v>
+        <v>2201.5017212826</v>
       </c>
       <c r="E43" t="n">
-        <v>9772.45347303057</v>
+        <v>12620.2865184947</v>
       </c>
       <c r="F43" t="n">
-        <v>11636.8684443406</v>
+        <v>15321.1574105</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2216.48930596013</v>
+        <v>-1311.34694850586</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6052.51674184993</v>
+        <v>6991.47794662348</v>
       </c>
       <c r="C44" t="n">
-        <v>2678.26442334632</v>
+        <v>3323.75248837071</v>
       </c>
       <c r="D44" t="n">
-        <v>772.836715340723</v>
+        <v>2036.41531244868</v>
       </c>
       <c r="E44" t="n">
-        <v>9877.14166631438</v>
+        <v>12233.0807853614</v>
       </c>
       <c r="F44" t="n">
-        <v>11782.56937432</v>
+        <v>15030.7658493764</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3111.48325815007</v>
+        <v>-2172.52205337652</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5399.91122667383</v>
+        <v>6102.87459811875</v>
       </c>
       <c r="C45" t="n">
-        <v>1789.30200171136</v>
+        <v>2633.37387178122</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1506.45923179253</v>
       </c>
       <c r="E45" t="n">
-        <v>9138.41571144072</v>
+        <v>10725.3820313831</v>
       </c>
       <c r="F45" t="n">
-        <v>11083.608610164</v>
+        <v>13623.0419498837</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2954.08877332617</v>
+        <v>-2251.12540188125</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4285.23073242999</v>
+        <v>4553.37597129545</v>
       </c>
       <c r="C46" t="n">
-        <v>395.375252653696</v>
+        <v>1560.35556188795</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>747.742887810605</v>
       </c>
       <c r="E46" t="n">
-        <v>7890.88943142263</v>
+        <v>8117.91214728517</v>
       </c>
       <c r="F46" t="n">
-        <v>9874.83219359796</v>
+        <v>10901.0962663474</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1701.76926757001</v>
+        <v>-1433.62402870455</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3376.2960643595</v>
+        <v>3345.45392111127</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>979.514189731485</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>378.150546379717</v>
       </c>
       <c r="E47" t="n">
-        <v>7203.63076931036</v>
+        <v>6662.4003810546</v>
       </c>
       <c r="F47" t="n">
-        <v>9225.45596999224</v>
+        <v>9211.87921289487</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1100.7039356405</v>
+        <v>-1131.54607888873</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3324.48135460924</v>
+        <v>3286.51765798678</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1163.49497256188</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>478.645564234973</v>
       </c>
       <c r="E48" t="n">
-        <v>7631.1623293603</v>
+        <v>7355.15813636126</v>
       </c>
       <c r="F48" t="n">
-        <v>9690.10157020839</v>
+        <v>10092.5313654334</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1215.51864539076</v>
+        <v>-1253.48234201322</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3303.88545401128</v>
+        <v>3410.9392690053</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1194.38066689333</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>488.772894613291</v>
       </c>
       <c r="E49" t="n">
-        <v>7774.80687142385</v>
+        <v>7597.55553546768</v>
       </c>
       <c r="F49" t="n">
-        <v>9870.16186940043</v>
+        <v>10432.0063540275</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-439.114545988722</v>
+        <v>-332.060730994699</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2531.46398914431</v>
+        <v>2520.22608915359</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>86.4639891443148</v>
+        <v>75.2260891535907</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2587.90740269787</v>
+        <v>2601.1300606122</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1654.90740269787</v>
+        <v>1668.1300606122</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4609.53245017568</v>
+        <v>4579.58257409743</v>
       </c>
       <c r="C4" t="n">
-        <v>3685.40524313014</v>
+        <v>3583.46847958981</v>
       </c>
       <c r="D4" t="n">
-        <v>3485.59788473942</v>
+        <v>3458.27291527576</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1101.53245017568</v>
+        <v>1071.58257409743</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,13 +523,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5251.78196392506</v>
+        <v>5209.81028867889</v>
       </c>
       <c r="C5" t="n">
-        <v>4160.45266010341</v>
+        <v>4015.79375305297</v>
       </c>
       <c r="D5" t="n">
-        <v>3868.95154727896</v>
+        <v>3838.53275622135</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-108.218036074941</v>
+        <v>-150.189711321113</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6220.48657809168</v>
+        <v>6122.76281129194</v>
       </c>
       <c r="C6" t="n">
-        <v>4871.12044584662</v>
+        <v>4584.6519933116</v>
       </c>
       <c r="D6" t="n">
-        <v>4472.06523132693</v>
+        <v>4220.52092003925</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>956.486578091676</v>
+        <v>858.762811291938</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,13 +587,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6674.08093117659</v>
+        <v>6507.49196784905</v>
       </c>
       <c r="C7" t="n">
-        <v>5190.68248524955</v>
+        <v>4830.01434364413</v>
       </c>
       <c r="D7" t="n">
-        <v>4615.31545913593</v>
+        <v>4265.19318711448</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>481.080931176587</v>
+        <v>314.491967849047</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,13 +619,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6602.20105528193</v>
+        <v>6332.20644361887</v>
       </c>
       <c r="C8" t="n">
-        <v>4956.81992629341</v>
+        <v>4418.19850010239</v>
       </c>
       <c r="D8" t="n">
-        <v>4366.3062571446</v>
+        <v>3935.16308718223</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1630.20105528193</v>
+        <v>1360.20644361887</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5738.29698782305</v>
+        <v>5546.64864939087</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>766.296987823051</v>
+        <v>574.648649390866</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4036.64574687905</v>
+        <v>4072.98190664041</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -692,10 +692,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5294.05431899279</v>
+        <v>5909.08116029609</v>
       </c>
       <c r="F10" t="n">
-        <v>6016.43089291314</v>
+        <v>6211.64934226131</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-455.354253120952</v>
+        <v>-419.018093359587</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2987.67853328369</v>
+        <v>2973.47256755123</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -724,7 +724,7 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4086.75304240855</v>
+        <v>4329.31540999517</v>
       </c>
       <c r="F11" t="n">
         <v>4708.01462847304</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-218.321466716305</v>
+        <v>-232.527432448774</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3076.8729223493</v>
+        <v>3079.33797239095</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-534.127077650695</v>
+        <v>-531.662027609047</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3160.85311968825</v>
+        <v>3119.50908873943</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-533.146880311748</v>
+        <v>-574.490911260571</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2671.90011414289</v>
+        <v>2659.9969382211</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-503.099885857114</v>
+        <v>-515.003061778902</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2732.62105426294</v>
+        <v>2805.59178655453</v>
       </c>
       <c r="C15" t="n">
         <v>1739.511421226</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-692.378945737056</v>
+        <v>-619.408213445467</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4579.38086213995</v>
+        <v>4434.54901708254</v>
       </c>
       <c r="C16" t="n">
-        <v>2857.67405792445</v>
+        <v>2555.24322441158</v>
       </c>
       <c r="D16" t="n">
-        <v>2530.05487648809</v>
+        <v>2348.33279195406</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2640.61913786005</v>
+        <v>-2785.45098291746</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,10 +907,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5465.15115904722</v>
+        <v>5291.71071094716</v>
       </c>
       <c r="C17" t="n">
-        <v>3780.97978024499</v>
+        <v>3591.95716632299</v>
       </c>
       <c r="D17" t="n">
         <v>3039.60259796516</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2382.84884095278</v>
+        <v>-2556.28928905284</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,13 +939,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6512.96010083414</v>
+        <v>6201.54805873002</v>
       </c>
       <c r="C18" t="n">
-        <v>4481.40955458169</v>
+        <v>4058.27312921099</v>
       </c>
       <c r="D18" t="n">
-        <v>3632.091522185</v>
+        <v>3564.3250414239</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1583.03989916586</v>
+        <v>-1894.45194126998</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,10 +971,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7045.60055612493</v>
+        <v>6631.41633963561</v>
       </c>
       <c r="C19" t="n">
-        <v>4597.30181783763</v>
+        <v>4346.55437725983</v>
       </c>
       <c r="D19" t="n">
         <v>3707.33132005967</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-2624.39944387507</v>
+        <v>-3038.58366036439</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7039.66089800196</v>
+        <v>6689.09004452504</v>
       </c>
       <c r="C20" t="n">
         <v>4381.89567560406</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2182.33910199804</v>
+        <v>-2532.90995547496</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6197.17498802989</v>
+        <v>6085.31317741155</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-669.825011970112</v>
+        <v>-781.686822588455</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4671.72858364992</v>
+        <v>4617.05082421935</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -1076,10 +1076,10 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>7240.39542434654</v>
+        <v>7117.36240885461</v>
       </c>
       <c r="F22" t="n">
-        <v>7632.85290640664</v>
+        <v>7583.42900695803</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1260.27141635008</v>
+        <v>-1314.94917578065</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3269.99076264317</v>
+        <v>3439.50255028697</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -1108,7 +1108,7 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>4865.72193442731</v>
+        <v>5348.35033048212</v>
       </c>
       <c r="F23" t="n">
         <v>6016.79481331413</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-352.009237356833</v>
+        <v>-182.497449713032</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3182.01354032148</v>
+        <v>3314.69282551248</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-466.986459678516</v>
+        <v>-334.307174487524</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3240.50084449602</v>
+        <v>3219.42423442739</v>
       </c>
       <c r="C25" t="n">
         <v>1829.00664776947</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1678.49915550398</v>
+        <v>-1699.57576557261</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2837.81896037123</v>
+        <v>2800.68092353902</v>
       </c>
       <c r="C26" t="n">
         <v>1423.24887290613</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1558.18103962877</v>
+        <v>-1595.31907646098</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2897.89688619167</v>
+        <v>2949.76359088171</v>
       </c>
       <c r="C27" t="n">
         <v>1434.76508825466</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1791.10311380833</v>
+        <v>-1739.23640911829</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,13 +1259,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4453.36793307685</v>
+        <v>4583.91571278839</v>
       </c>
       <c r="C28" t="n">
-        <v>2147.2310758301</v>
+        <v>2211.33564387758</v>
       </c>
       <c r="D28" t="n">
-        <v>1863.77393424052</v>
+        <v>1800.25577767751</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2202.63206692315</v>
+        <v>-2072.08428721161</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,10 +1291,10 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5625.09996195795</v>
+        <v>5172.56523268995</v>
       </c>
       <c r="C29" t="n">
-        <v>3296.00387173334</v>
+        <v>2941.98779556963</v>
       </c>
       <c r="D29" t="n">
         <v>2343.11284856902</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1498.90003804205</v>
+        <v>-1951.43476731005</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6567.43121020893</v>
+        <v>6436.16615609663</v>
       </c>
       <c r="C30" t="n">
-        <v>3943.60404301965</v>
+        <v>3839.23488708462</v>
       </c>
       <c r="D30" t="n">
         <v>2854.30301121725</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2256.56878979107</v>
+        <v>-2387.83384390337</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7085.52681178498</v>
+        <v>6861.05456960715</v>
       </c>
       <c r="C31" t="n">
         <v>4049.31326272684</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-2857.47318821502</v>
+        <v>-3081.94543039285</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6920.86954434931</v>
+        <v>6993.30811374558</v>
       </c>
       <c r="C32" t="n">
         <v>3846.91026639935</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2762.13045565069</v>
+        <v>-2689.69188625442</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6179.01571224011</v>
+        <v>6300.27675078031</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1707.98428775989</v>
+        <v>-1586.72324921969</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4435.83623215558</v>
+        <v>4948.28518341289</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -1460,7 +1460,7 @@
         <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>7196.2425014789</v>
+        <v>7331.92561284433</v>
       </c>
       <c r="F34" t="n">
         <v>8948.05095962559</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-875.16376784442</v>
+        <v>-362.714816587108</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3238.97752704646</v>
+        <v>3878.15548611513</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -1492,7 +1492,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>5670.92569293253</v>
+        <v>6135.06885014175</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>703.977527046455</v>
+        <v>1343.15548611513</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3158.30316956083</v>
+        <v>3622.76585326116</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>589.303169560828</v>
+        <v>1053.76585326116</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3304.20350540051</v>
+        <v>3296.66680200526</v>
       </c>
       <c r="C37" t="n">
         <v>1501.83211585826</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1484.20350540051</v>
+        <v>1476.66680200526</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2923.18423114309</v>
+        <v>2866.65523064283</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>605.18423114309</v>
+        <v>548.655230642828</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2915.55730604241</v>
+        <v>3077.80608193305</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2746.44269395759</v>
+        <v>-2584.19391806695</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,13 +1643,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4611.04577870867</v>
+        <v>4706.47475401458</v>
       </c>
       <c r="C40" t="n">
-        <v>2106.06003224906</v>
+        <v>1836.85599140829</v>
       </c>
       <c r="D40" t="n">
-        <v>1448.3602131735</v>
+        <v>1178.58295173923</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1931.95422129133</v>
+        <v>-1836.52524598542</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5657.48310493588</v>
+        <v>5149.55004030307</v>
       </c>
       <c r="C41" t="n">
-        <v>2826.46371836748</v>
+        <v>2486.77774356609</v>
       </c>
       <c r="D41" t="n">
         <v>1722.85011950393</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2019.51689506412</v>
+        <v>-2527.44995969693</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6560.71901484822</v>
+        <v>6406.60896867615</v>
       </c>
       <c r="C42" t="n">
         <v>3418.60061292887</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2506.28098515178</v>
+        <v>-2660.39103132385</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7014.65305149414</v>
+        <v>6820.12389734799</v>
       </c>
       <c r="C43" t="n">
         <v>3513.08387032542</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1311.34694850586</v>
+        <v>-1505.87610265201</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6991.47794662348</v>
+        <v>6903.81747366134</v>
       </c>
       <c r="C44" t="n">
         <v>3323.75248837071</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2172.52205337652</v>
+        <v>-2260.18252633866</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6102.87459811875</v>
+        <v>6238.46039314897</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2251.12540188125</v>
+        <v>-2115.53960685103</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4553.37597129545</v>
+        <v>4881.76833898923</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1433.62402870455</v>
+        <v>-1105.23166101077</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3345.45392111127</v>
+        <v>3809.70095215896</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1131.54607888873</v>
+        <v>-667.299047841044</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3286.51765798678</v>
+        <v>3649.39838524053</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1253.48234201322</v>
+        <v>-890.601614759466</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3410.9392690053</v>
+        <v>3385.65245294953</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-332.060730994699</v>
+        <v>-357.347547050473</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2520.22608915359</v>
+        <v>2499.5183567505</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>75.2260891535907</v>
+        <v>54.5183567504973</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2601.1300606122</v>
+        <v>2572.81159379997</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1668.1300606122</v>
+        <v>1639.81159379997</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4579.58257409743</v>
+        <v>4564.30686758376</v>
       </c>
       <c r="C4" t="n">
-        <v>3583.46847958981</v>
+        <v>3516.58659342595</v>
       </c>
       <c r="D4" t="n">
-        <v>3458.27291527576</v>
+        <v>3406.01186754749</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1071.58257409743</v>
+        <v>1056.30686758376</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,13 +523,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5209.81028867889</v>
+        <v>5160.7768936451</v>
       </c>
       <c r="C5" t="n">
-        <v>4015.79375305297</v>
+        <v>3754.88327627754</v>
       </c>
       <c r="D5" t="n">
-        <v>3838.53275622135</v>
+        <v>3580.64703186017</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-150.189711321113</v>
+        <v>-199.223106354897</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6122.76281129194</v>
+        <v>6045.47843152312</v>
       </c>
       <c r="C6" t="n">
-        <v>4584.6519933116</v>
+        <v>4179.74185310249</v>
       </c>
       <c r="D6" t="n">
-        <v>4220.52092003925</v>
+        <v>3834.92948709128</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>858.762811291938</v>
+        <v>781.478431523115</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,13 +587,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6507.49196784905</v>
+        <v>6400.93935985961</v>
       </c>
       <c r="C7" t="n">
-        <v>4830.01434364413</v>
+        <v>4599.86481061354</v>
       </c>
       <c r="D7" t="n">
-        <v>4265.19318711448</v>
+        <v>4163.71888182886</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>314.491967849047</v>
+        <v>207.939359859613</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,13 +619,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6332.20644361887</v>
+        <v>6174.23920098852</v>
       </c>
       <c r="C8" t="n">
-        <v>4418.19850010239</v>
+        <v>4416.47475631294</v>
       </c>
       <c r="D8" t="n">
-        <v>3935.16308718223</v>
+        <v>4121.66369501346</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1360.20644361887</v>
+        <v>1202.23920098852</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5546.64864939087</v>
+        <v>5383.41921426064</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>574.648649390866</v>
+        <v>411.419214260643</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4072.98190664041</v>
+        <v>3850.32131348732</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -692,10 +692,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5909.08116029609</v>
+        <v>5368.3103318324</v>
       </c>
       <c r="F10" t="n">
-        <v>6211.64934226131</v>
+        <v>6016.43089291314</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-419.018093359587</v>
+        <v>-641.678686512675</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2973.47256755123</v>
+        <v>2808.34359226312</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -724,7 +724,7 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4329.31540999517</v>
+        <v>4000.07775683539</v>
       </c>
       <c r="F11" t="n">
         <v>4708.01462847304</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-232.527432448774</v>
+        <v>-397.656407736879</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3079.33797239095</v>
+        <v>2971.73113155808</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-531.662027609047</v>
+        <v>-639.26886844192</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3119.50908873943</v>
+        <v>3065.58137355917</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-574.490911260571</v>
+        <v>-628.418626440831</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2659.9969382211</v>
+        <v>2600.60698409385</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-515.003061778902</v>
+        <v>-574.393015906146</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,10 +843,10 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2805.59178655453</v>
+        <v>2677.83936486815</v>
       </c>
       <c r="C15" t="n">
-        <v>1739.511421226</v>
+        <v>1669.35358350412</v>
       </c>
       <c r="D15" t="n">
         <v>1309.75218349487</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-619.408213445467</v>
+        <v>-747.160635131854</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4434.54901708254</v>
+        <v>4412.19712534293</v>
       </c>
       <c r="C16" t="n">
-        <v>2555.24322441158</v>
+        <v>2368.88119195857</v>
       </c>
       <c r="D16" t="n">
-        <v>2348.33279195406</v>
+        <v>2144.89143594314</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2785.45098291746</v>
+        <v>-2807.80287465707</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,13 +907,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5291.71071094716</v>
+        <v>5188.66949872935</v>
       </c>
       <c r="C17" t="n">
-        <v>3591.95716632299</v>
+        <v>3063.85344572253</v>
       </c>
       <c r="D17" t="n">
-        <v>3039.60259796516</v>
+        <v>2705.98458571268</v>
       </c>
       <c r="E17" t="n">
         <v>8494.68924107114</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2556.28928905284</v>
+        <v>-2659.33050127065</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,13 +939,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6201.54805873002</v>
+        <v>5934.7260396503</v>
       </c>
       <c r="C18" t="n">
-        <v>4058.27312921099</v>
+        <v>3278.04775288533</v>
       </c>
       <c r="D18" t="n">
-        <v>3564.3250414239</v>
+        <v>2811.77276626491</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1894.45194126998</v>
+        <v>-2161.2739603497</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,13 +971,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6631.41633963561</v>
+        <v>6241.11540961488</v>
       </c>
       <c r="C19" t="n">
-        <v>4346.55437725983</v>
+        <v>3778.3376961019</v>
       </c>
       <c r="D19" t="n">
-        <v>3707.33132005967</v>
+        <v>3353.6368979253</v>
       </c>
       <c r="E19" t="n">
         <v>10141.1914479731</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3038.58366036439</v>
+        <v>-3428.88459038512</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,10 +1003,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6689.09004452504</v>
+        <v>6125.08317192318</v>
       </c>
       <c r="C20" t="n">
-        <v>4381.89567560406</v>
+        <v>4241.43946751464</v>
       </c>
       <c r="D20" t="n">
         <v>3491.54840414504</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2532.90995547496</v>
+        <v>-3096.91682807682</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6085.31317741155</v>
+        <v>5311.8800883987</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-781.686822588455</v>
+        <v>-1555.1199116013</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4617.05082421935</v>
+        <v>3881.57466336034</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -1076,10 +1076,10 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>7117.36240885461</v>
+        <v>6300.13849596426</v>
       </c>
       <c r="F22" t="n">
-        <v>7583.42900695803</v>
+        <v>7551.56273391586</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1314.94917578065</v>
+        <v>-2050.42533663966</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3439.50255028697</v>
+        <v>2787.78180835005</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -1108,7 +1108,7 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>5348.35033048212</v>
+        <v>4866.72494197849</v>
       </c>
       <c r="F23" t="n">
         <v>6016.79481331413</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-182.497449713032</v>
+        <v>-834.218191649951</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3314.69282551248</v>
+        <v>2858.44690328899</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-334.307174487524</v>
+        <v>-790.553096711012</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3219.42423442739</v>
+        <v>3003.72585016267</v>
       </c>
       <c r="C25" t="n">
-        <v>1829.00664776947</v>
+        <v>1679.17274067448</v>
       </c>
       <c r="D25" t="n">
         <v>1240.28644452059</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1699.57576557261</v>
+        <v>-1915.27414983733</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2800.68092353902</v>
+        <v>2578.59594913963</v>
       </c>
       <c r="C26" t="n">
-        <v>1423.24887290613</v>
+        <v>1274.39903375164</v>
       </c>
       <c r="D26" t="n">
         <v>900.410172952505</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1595.31907646098</v>
+        <v>-1817.40405086037</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,10 +1227,10 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2949.76359088171</v>
+        <v>2636.29555131407</v>
       </c>
       <c r="C27" t="n">
-        <v>1434.76508825466</v>
+        <v>1246.91091622409</v>
       </c>
       <c r="D27" t="n">
         <v>895.199325928177</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1739.23640911829</v>
+        <v>-2052.70444868593</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,13 +1259,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4583.91571278839</v>
+        <v>4246.798660274</v>
       </c>
       <c r="C28" t="n">
-        <v>2211.33564387758</v>
+        <v>1464.79754187174</v>
       </c>
       <c r="D28" t="n">
-        <v>1800.25577767751</v>
+        <v>1234.05437160573</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2072.08428721161</v>
+        <v>-2409.201339726</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,13 +1291,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5172.56523268995</v>
+        <v>5200.73329114052</v>
       </c>
       <c r="C29" t="n">
-        <v>2941.98779556963</v>
+        <v>2142.04282848902</v>
       </c>
       <c r="D29" t="n">
-        <v>2343.11284856902</v>
+        <v>1489.17108245865</v>
       </c>
       <c r="E29" t="n">
         <v>9679.54037829963</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1951.43476731005</v>
+        <v>-1923.26670885948</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,13 +1323,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6436.16615609663</v>
+        <v>6049.68962963434</v>
       </c>
       <c r="C30" t="n">
-        <v>3839.23488708462</v>
+        <v>2998.47523940712</v>
       </c>
       <c r="D30" t="n">
-        <v>2854.30301121725</v>
+        <v>2385.62802207643</v>
       </c>
       <c r="E30" t="n">
         <v>10947.5111749827</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2387.83384390337</v>
+        <v>-2774.31037036566</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6861.05456960715</v>
+        <v>6369.63562280809</v>
       </c>
       <c r="C31" t="n">
-        <v>4049.31326272684</v>
+        <v>3677.88420378451</v>
       </c>
       <c r="D31" t="n">
         <v>2917.30065609826</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3081.94543039285</v>
+        <v>-3573.36437719191</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6993.30811374558</v>
+        <v>6289.62496318651</v>
       </c>
       <c r="C32" t="n">
         <v>3846.91026639935</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2689.69188625442</v>
+        <v>-3393.37503681349</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6300.27675078031</v>
+        <v>5583.3078550542</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1586.72324921969</v>
+        <v>-2303.6921449458</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4948.28518341289</v>
+        <v>4026.78098672855</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -1460,7 +1460,7 @@
         <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>7331.92561284433</v>
+        <v>7196.2425014789</v>
       </c>
       <c r="F34" t="n">
         <v>8948.05095962559</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-362.714816587108</v>
+        <v>-1284.21901327145</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3878.15548611513</v>
+        <v>2904.29455209353</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -1492,7 +1492,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>6135.06885014175</v>
+        <v>5670.92569293253</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>1343.15548611513</v>
+        <v>369.294552093527</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3622.76585326116</v>
+        <v>2978.98236426928</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>1053.76585326116</v>
+        <v>409.982364269279</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,10 +1547,10 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3296.66680200526</v>
+        <v>3116.12243529275</v>
       </c>
       <c r="C37" t="n">
-        <v>1501.83211585826</v>
+        <v>1376.03299995998</v>
       </c>
       <c r="D37" t="n">
         <v>825.299313086099</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1476.66680200526</v>
+        <v>1296.12243529275</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2866.65523064283</v>
+        <v>2707.58079303788</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>548.655230642828</v>
+        <v>389.580793037882</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3077.80608193305</v>
+        <v>2731.14513363903</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2584.19391806695</v>
+        <v>-2930.85486636097</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,13 +1643,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4706.47475401458</v>
+        <v>4365.31031859338</v>
       </c>
       <c r="C40" t="n">
-        <v>1836.85599140829</v>
+        <v>1162.17051701505</v>
       </c>
       <c r="D40" t="n">
-        <v>1178.58295173923</v>
+        <v>976.220975602741</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1836.52524598542</v>
+        <v>-2177.68968140662</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,13 +1675,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5149.55004030307</v>
+        <v>5381.17211393562</v>
       </c>
       <c r="C41" t="n">
-        <v>2486.77774356609</v>
+        <v>1471.47832539291</v>
       </c>
       <c r="D41" t="n">
-        <v>1722.85011950393</v>
+        <v>1060.14540843188</v>
       </c>
       <c r="E41" t="n">
         <v>10796.6579388954</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2527.44995969693</v>
+        <v>-2295.82788606438</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6406.60896867615</v>
+        <v>6303.01809675458</v>
       </c>
       <c r="C42" t="n">
-        <v>3418.60061292887</v>
+        <v>2882.99615025094</v>
       </c>
       <c r="D42" t="n">
         <v>2151.34369420497</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2660.39103132385</v>
+        <v>-2763.98190324542</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6820.12389734799</v>
+        <v>6612.61453180103</v>
       </c>
       <c r="C43" t="n">
         <v>3513.08387032542</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1505.87610265201</v>
+        <v>-1713.38546819897</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6903.81747366134</v>
+        <v>6566.2962390924</v>
       </c>
       <c r="C44" t="n">
         <v>3323.75248837071</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2260.18252633866</v>
+        <v>-2597.7037609076</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6238.46039314897</v>
+        <v>5794.31686845813</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2115.53960685103</v>
+        <v>-2559.68313154187</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4881.76833898923</v>
+        <v>4210.26938612463</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1105.23166101077</v>
+        <v>-1776.73061387537</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3809.70095215896</v>
+        <v>3083.9471661694</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-667.299047841044</v>
+        <v>-1393.0528338306</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3649.39838524053</v>
+        <v>3113.10906076194</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-890.601614759466</v>
+        <v>-1426.89093923806</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3385.65245294953</v>
+        <v>3251.30989715978</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-357.347547050473</v>
+        <v>-491.690102840225</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2499.5183567505</v>
+        <v>2554.05784906726</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>54.5183567504973</v>
+        <v>109.057849067263</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2572.81159379997</v>
+        <v>2619.75006196415</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1639.81159379997</v>
+        <v>1686.75006196415</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4564.30686758376</v>
+        <v>4604.89477369981</v>
       </c>
       <c r="C4" t="n">
-        <v>3516.58659342595</v>
+        <v>3657.19283689755</v>
       </c>
       <c r="D4" t="n">
-        <v>3406.01186754749</v>
+        <v>3485.59788473942</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1056.30686758376</v>
+        <v>1096.89477369981</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,13 +523,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5160.7768936451</v>
+        <v>5258.17043206857</v>
       </c>
       <c r="C5" t="n">
-        <v>3754.88327627754</v>
+        <v>4167.63603231541</v>
       </c>
       <c r="D5" t="n">
-        <v>3580.64703186017</v>
+        <v>3868.95154727896</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-199.223106354897</v>
+        <v>-101.829567931427</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6045.47843152312</v>
+        <v>6225.16680982734</v>
       </c>
       <c r="C6" t="n">
-        <v>4179.74185310249</v>
+        <v>4830.82597472165</v>
       </c>
       <c r="D6" t="n">
-        <v>3834.92948709128</v>
+        <v>4399.75161981965</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>781.478431523115</v>
+        <v>961.166809827337</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,13 +587,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6400.93935985961</v>
+        <v>6647.07832383379</v>
       </c>
       <c r="C7" t="n">
-        <v>4599.86481061354</v>
+        <v>5190.68248524955</v>
       </c>
       <c r="D7" t="n">
-        <v>4163.71888182886</v>
+        <v>4615.31545913593</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>207.939359859613</v>
+        <v>454.078323833786</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,13 +619,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6174.23920098852</v>
+        <v>6553.11920460119</v>
       </c>
       <c r="C8" t="n">
-        <v>4416.47475631294</v>
+        <v>4930.10962584384</v>
       </c>
       <c r="D8" t="n">
-        <v>4121.66369501346</v>
+        <v>4325.48088487394</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1202.23920098852</v>
+        <v>1581.11920460119</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5383.41921426064</v>
+        <v>5703.11088362786</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>411.419214260643</v>
+        <v>731.110883627864</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3850.32131348732</v>
+        <v>4230.73294012255</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -692,10 +692,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5368.3103318324</v>
+        <v>6113.26596034152</v>
       </c>
       <c r="F10" t="n">
-        <v>6016.43089291314</v>
+        <v>6353.22426501658</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-641.678686512675</v>
+        <v>-261.267059877448</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2808.34359226312</v>
+        <v>3208.26168802262</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -724,10 +724,10 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4000.07775683539</v>
+        <v>4940.04018441525</v>
       </c>
       <c r="F11" t="n">
-        <v>4708.01462847304</v>
+        <v>5298.35406832749</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,10 +736,10 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-397.656407736879</v>
+        <v>2.26168802261964</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2971.73113155808</v>
+        <v>3218.0666403121</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-639.26886844192</v>
+        <v>-392.933359687898</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3065.58137355917</v>
+        <v>3205.73956502267</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-628.418626440831</v>
+        <v>-488.260434977327</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2600.60698409385</v>
+        <v>2708.21559493809</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-574.393015906146</v>
+        <v>-466.784405061912</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,10 +843,10 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2677.83936486815</v>
+        <v>2813.01480209488</v>
       </c>
       <c r="C15" t="n">
-        <v>1669.35358350412</v>
+        <v>1739.511421226</v>
       </c>
       <c r="D15" t="n">
         <v>1309.75218349487</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-747.160635131854</v>
+        <v>-611.985197905125</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4412.19712534293</v>
+        <v>4452.06520055205</v>
       </c>
       <c r="C16" t="n">
-        <v>2368.88119195857</v>
+        <v>2621.59858095478</v>
       </c>
       <c r="D16" t="n">
-        <v>2144.89143594314</v>
+        <v>2436.89087428613</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2807.80287465707</v>
+        <v>-2767.93479944795</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,13 +907,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5188.66949872935</v>
+        <v>5200.81375803505</v>
       </c>
       <c r="C17" t="n">
-        <v>3063.85344572253</v>
+        <v>3282.21763413367</v>
       </c>
       <c r="D17" t="n">
-        <v>2705.98458571268</v>
+        <v>2985.98714134414</v>
       </c>
       <c r="E17" t="n">
         <v>8494.68924107114</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2659.33050127065</v>
+        <v>-2647.18624196495</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,13 +939,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5934.7260396503</v>
+        <v>6096.14687846316</v>
       </c>
       <c r="C18" t="n">
-        <v>3278.04775288533</v>
+        <v>3831.207622359</v>
       </c>
       <c r="D18" t="n">
-        <v>2811.77276626491</v>
+        <v>3463.3292702407</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2161.2739603497</v>
+        <v>-1999.85312153684</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,13 +971,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6241.11540961488</v>
+        <v>6422.86557617782</v>
       </c>
       <c r="C19" t="n">
-        <v>3778.3376961019</v>
+        <v>4113.00361417104</v>
       </c>
       <c r="D19" t="n">
-        <v>3353.6368979253</v>
+        <v>3633.1504405902</v>
       </c>
       <c r="E19" t="n">
         <v>10141.1914479731</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3428.88459038512</v>
+        <v>-3247.13442382218</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,10 +1003,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6125.08317192318</v>
+        <v>6276.83468386286</v>
       </c>
       <c r="C20" t="n">
-        <v>4241.43946751464</v>
+        <v>4338.00581906646</v>
       </c>
       <c r="D20" t="n">
         <v>3491.54840414504</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3096.91682807682</v>
+        <v>-2945.16531613714</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5311.8800883987</v>
+        <v>5515.75629751937</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1555.1199116013</v>
+        <v>-1351.24370248063</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3881.57466336034</v>
+        <v>4188.77428312046</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -1076,7 +1076,7 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>6300.13849596426</v>
+        <v>6529.08546925863</v>
       </c>
       <c r="F22" t="n">
         <v>7551.56273391586</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2050.42533663966</v>
+        <v>-1743.22571687954</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2787.78180835005</v>
+        <v>3226.8789052484</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -1108,10 +1108,10 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>4866.72494197849</v>
+        <v>5444.65589875805</v>
       </c>
       <c r="F23" t="n">
-        <v>6016.79481331413</v>
+        <v>6029.42772236003</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-834.218191649951</v>
+        <v>-395.121094751596</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2858.44690328899</v>
+        <v>3231.39442165279</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-790.553096711012</v>
+        <v>-417.605578347213</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3003.72585016267</v>
+        <v>3208.9805681149</v>
       </c>
       <c r="C25" t="n">
-        <v>1679.17274067448</v>
+        <v>1829.00664776947</v>
       </c>
       <c r="D25" t="n">
         <v>1240.28644452059</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1915.27414983733</v>
+        <v>-1710.0194318851</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2578.59594913963</v>
+        <v>2782.53970601424</v>
       </c>
       <c r="C26" t="n">
-        <v>1274.39903375164</v>
+        <v>1423.24887290613</v>
       </c>
       <c r="D26" t="n">
         <v>900.410172952505</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1817.40405086037</v>
+        <v>-1613.46029398576</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,10 +1227,10 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2636.29555131407</v>
+        <v>2901.02374228052</v>
       </c>
       <c r="C27" t="n">
-        <v>1246.91091622409</v>
+        <v>1434.76508825466</v>
       </c>
       <c r="D27" t="n">
         <v>895.199325928177</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-2052.70444868593</v>
+        <v>-1787.97625771948</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,13 +1259,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4246.798660274</v>
+        <v>4492.49120697023</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.79754187174</v>
+        <v>1966.39079028843</v>
       </c>
       <c r="D28" t="n">
-        <v>1234.05437160573</v>
+        <v>1535.41727108716</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2409.201339726</v>
+        <v>-2163.50879302977</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,13 +1291,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5200.73329114052</v>
+        <v>5099.40619556925</v>
       </c>
       <c r="C29" t="n">
-        <v>2142.04282848902</v>
+        <v>2250.60716164607</v>
       </c>
       <c r="D29" t="n">
-        <v>1489.17108245865</v>
+        <v>1752.80362725417</v>
       </c>
       <c r="E29" t="n">
         <v>9679.54037829963</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1923.26670885948</v>
+        <v>-2024.59380443075</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,13 +1323,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6049.68962963434</v>
+        <v>6050.60374396076</v>
       </c>
       <c r="C30" t="n">
-        <v>2998.47523940712</v>
+        <v>2765.0224828787</v>
       </c>
       <c r="D30" t="n">
-        <v>2385.62802207643</v>
+        <v>2255.47681938644</v>
       </c>
       <c r="E30" t="n">
         <v>10947.5111749827</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2774.31037036566</v>
+        <v>-2773.39625603924</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,13 +1355,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6369.63562280809</v>
+        <v>6280.2282244919</v>
       </c>
       <c r="C31" t="n">
-        <v>3677.88420378451</v>
+        <v>3328.12089579642</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.30065609826</v>
+        <v>2767.58894615949</v>
       </c>
       <c r="E31" t="n">
         <v>11414.5143524357</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3573.36437719191</v>
+        <v>-3662.7717755081</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,10 +1387,10 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6289.62496318651</v>
+        <v>6154.97589926117</v>
       </c>
       <c r="C32" t="n">
-        <v>3846.91026639935</v>
+        <v>3692.28111209629</v>
       </c>
       <c r="D32" t="n">
         <v>2726.75566049589</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3393.37503681349</v>
+        <v>-3528.02410073883</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5583.3078550542</v>
+        <v>5431.84514267366</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2303.6921449458</v>
+        <v>-2455.15485732634</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4026.78098672855</v>
+        <v>4063.49757659111</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1284.21901327145</v>
+        <v>-1247.50242340889</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2904.29455209353</v>
+        <v>3199.6656779107</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -1492,7 +1492,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>5670.92569293253</v>
+        <v>6086.88751748843</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>369.294552093527</v>
+        <v>664.665677910702</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2978.98236426928</v>
+        <v>3223.3038939989</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>409.982364269279</v>
+        <v>654.303893998904</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,10 +1547,10 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3116.12243529275</v>
+        <v>3153.59398599711</v>
       </c>
       <c r="C37" t="n">
-        <v>1376.03299995998</v>
+        <v>1501.83211585826</v>
       </c>
       <c r="D37" t="n">
         <v>825.299313086099</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1296.12243529275</v>
+        <v>1333.59398599711</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2707.58079303788</v>
+        <v>2770.06325645664</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>389.580793037882</v>
+        <v>452.063256456635</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2731.14513363903</v>
+        <v>2897.56474961428</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2930.85486636097</v>
+        <v>-2764.43525038572</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,13 +1643,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4365.31031859338</v>
+        <v>4520.96512971617</v>
       </c>
       <c r="C40" t="n">
-        <v>1162.17051701505</v>
+        <v>1333.53513567636</v>
       </c>
       <c r="D40" t="n">
-        <v>976.220975602741</v>
+        <v>1125.05589416026</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2177.68968140662</v>
+        <v>-2022.03487028383</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,13 +1675,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5381.17211393562</v>
+        <v>4975.50714692157</v>
       </c>
       <c r="C41" t="n">
-        <v>1471.47832539291</v>
+        <v>1377.24683688247</v>
       </c>
       <c r="D41" t="n">
-        <v>1060.14540843188</v>
+        <v>1070.1652241003</v>
       </c>
       <c r="E41" t="n">
         <v>10796.6579388954</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2295.82788606438</v>
+        <v>-2701.49285307843</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,13 +1707,13 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6303.01809675458</v>
+        <v>6011.66763725157</v>
       </c>
       <c r="C42" t="n">
-        <v>2882.99615025094</v>
+        <v>1768.47620439158</v>
       </c>
       <c r="D42" t="n">
-        <v>2151.34369420497</v>
+        <v>1217.89994251328</v>
       </c>
       <c r="E42" t="n">
         <v>12134.7960344282</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2763.98190324542</v>
+        <v>-3055.33236274843</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,13 +1739,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6612.61453180103</v>
+        <v>6292.73234303618</v>
       </c>
       <c r="C43" t="n">
-        <v>3513.08387032542</v>
+        <v>2597.21389604538</v>
       </c>
       <c r="D43" t="n">
-        <v>2201.5017212826</v>
+        <v>1831.14561875674</v>
       </c>
       <c r="E43" t="n">
         <v>12620.2865184947</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1713.38546819897</v>
+        <v>-2033.26765696382</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,10 +1771,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6566.2962390924</v>
+        <v>6132.1769948323</v>
       </c>
       <c r="C44" t="n">
-        <v>3323.75248837071</v>
+        <v>3282.84319608845</v>
       </c>
       <c r="D44" t="n">
         <v>2036.41531244868</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2597.7037609076</v>
+        <v>-3031.8230051677</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5794.31686845813</v>
+        <v>5430.25271895209</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2559.68313154187</v>
+        <v>-2923.74728104791</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4210.26938612463</v>
+        <v>4190.4078379091</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1776.73061387537</v>
+        <v>-1796.5921620909</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3083.9471661694</v>
+        <v>3240.90746205797</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1393.0528338306</v>
+        <v>-1236.09253794203</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3113.10906076194</v>
+        <v>3252.88459366779</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1426.89093923806</v>
+        <v>-1287.11540633221</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3251.30989715978</v>
+        <v>3223.54084587535</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-491.690102840225</v>
+        <v>-519.459154124646</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2554.05784906726</v>
+        <v>2537.05325535266</v>
       </c>
       <c r="C2" t="n">
-        <v>1991.94667052589</v>
+        <v>1984.54888926314</v>
       </c>
       <c r="D2" t="n">
-        <v>1788.05116420935</v>
+        <v>1781.10042027737</v>
       </c>
       <c r="E2" t="n">
-        <v>3072.3343092739</v>
+        <v>3072.31132529629</v>
       </c>
       <c r="F2" t="n">
-        <v>3363.8998949101</v>
+        <v>3363.86049637916</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>109.057849067263</v>
+        <v>92.0532553526564</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2619.75006196415</v>
+        <v>2593.48112579995</v>
       </c>
       <c r="C3" t="n">
-        <v>2106.4297907211</v>
+        <v>2106.45612056326</v>
       </c>
       <c r="D3" t="n">
-        <v>1857.02570822349</v>
+        <v>1857.05272457034</v>
       </c>
       <c r="E3" t="n">
-        <v>3347.22940887739</v>
+        <v>3353.09791768349</v>
       </c>
       <c r="F3" t="n">
-        <v>3692.55480828759</v>
+        <v>3700.1121971515</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1686.75006196415</v>
+        <v>1660.48112579995</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4604.89477369981</v>
+        <v>4585.01756178904</v>
       </c>
       <c r="C4" t="n">
-        <v>3657.19283689755</v>
+        <v>3599.20836651391</v>
       </c>
       <c r="D4" t="n">
-        <v>3485.59788473942</v>
+        <v>3485.4462368644</v>
       </c>
       <c r="E4" t="n">
-        <v>6059.97763513824</v>
+        <v>6058.47101468515</v>
       </c>
       <c r="F4" t="n">
-        <v>6609.42775988972</v>
+        <v>6611.18879296521</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1096.89477369981</v>
+        <v>1077.01756178904</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5258.17043206857</v>
+        <v>5230.69848125043</v>
       </c>
       <c r="C5" t="n">
-        <v>4167.63603231541</v>
+        <v>4009.64890752644</v>
       </c>
       <c r="D5" t="n">
-        <v>3868.95154727896</v>
+        <v>3812.17145532786</v>
       </c>
       <c r="E5" t="n">
-        <v>7086.92421038528</v>
+        <v>7133.85090937864</v>
       </c>
       <c r="F5" t="n">
-        <v>7752.38689477534</v>
+        <v>7806.80440235158</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-101.829567931427</v>
+        <v>-129.301518749568</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6225.16680982734</v>
+        <v>6125.00052544086</v>
       </c>
       <c r="C6" t="n">
-        <v>4830.82597472165</v>
+        <v>4610.78505273494</v>
       </c>
       <c r="D6" t="n">
-        <v>4399.75161981965</v>
+        <v>4301.17867783317</v>
       </c>
       <c r="E6" t="n">
-        <v>8215.79409716881</v>
+        <v>8223.83011974576</v>
       </c>
       <c r="F6" t="n">
-        <v>9004.07060518214</v>
+        <v>9019.22378387279</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>961.166809827337</v>
+        <v>861.000525440863</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6647.07832383379</v>
+        <v>6492.07451787796</v>
       </c>
       <c r="C7" t="n">
-        <v>5190.68248524955</v>
+        <v>5190.73857778658</v>
       </c>
       <c r="D7" t="n">
-        <v>4615.31545913593</v>
+        <v>4615.37904231789</v>
       </c>
       <c r="E7" t="n">
-        <v>8670.22519575541</v>
+        <v>8665.80292257837</v>
       </c>
       <c r="F7" t="n">
-        <v>9544.91491462409</v>
+        <v>9548.28120143024</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>454.078323833786</v>
+        <v>299.074517877963</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6553.11920460119</v>
+        <v>6312.13550594931</v>
       </c>
       <c r="C8" t="n">
-        <v>4930.10962584384</v>
+        <v>4811.33709875243</v>
       </c>
       <c r="D8" t="n">
-        <v>4325.48088487394</v>
+        <v>4327.80860883783</v>
       </c>
       <c r="E8" t="n">
-        <v>8416.9674434498</v>
+        <v>8466.94229596671</v>
       </c>
       <c r="F8" t="n">
-        <v>9334.48384481398</v>
+        <v>9396.50221562133</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1581.11920460119</v>
+        <v>1340.13550594931</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5703.11088362786</v>
+        <v>5502.00463766741</v>
       </c>
       <c r="C9" t="n">
-        <v>4083.83189494892</v>
+        <v>4083.87163209392</v>
       </c>
       <c r="D9" t="n">
-        <v>3531.60971130428</v>
+        <v>3531.65946007495</v>
       </c>
       <c r="E9" t="n">
-        <v>7257.74396104519</v>
+        <v>7257.91934394683</v>
       </c>
       <c r="F9" t="n">
-        <v>8151.83935047934</v>
+        <v>8161.15165773869</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>731.110883627864</v>
+        <v>530.004637667413</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4230.73294012255</v>
+        <v>4021.77793567415</v>
       </c>
       <c r="C10" t="n">
-        <v>2672.58054715183</v>
+        <v>2672.60628877495</v>
       </c>
       <c r="D10" t="n">
-        <v>2224.76066630715</v>
+        <v>2224.78911229331</v>
       </c>
       <c r="E10" t="n">
-        <v>6113.26596034152</v>
+        <v>5626.70242778296</v>
       </c>
       <c r="F10" t="n">
-        <v>6353.22426501658</v>
+        <v>6058.73190694369</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-261.267059877448</v>
+        <v>-470.222064325852</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3208.26168802262</v>
+        <v>2944.76136511447</v>
       </c>
       <c r="C11" t="n">
-        <v>1864.16735152256</v>
+        <v>1864.17423180044</v>
       </c>
       <c r="D11" t="n">
-        <v>1489.11877012796</v>
+        <v>1477.82115486479</v>
       </c>
       <c r="E11" t="n">
-        <v>4940.04018441525</v>
+        <v>4175.63785952438</v>
       </c>
       <c r="F11" t="n">
-        <v>5298.35406832749</v>
+        <v>4726.09644264318</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,10 +736,10 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26168802261964</v>
+        <v>-261.238634885533</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3218.0666403121</v>
+        <v>3022.60938313157</v>
       </c>
       <c r="C12" t="n">
-        <v>2120.53544403332</v>
+        <v>2112.43781065982</v>
       </c>
       <c r="D12" t="n">
-        <v>1664.28601663855</v>
+        <v>1652.70379843085</v>
       </c>
       <c r="E12" t="n">
-        <v>4446.47093339221</v>
+        <v>4464.28013719681</v>
       </c>
       <c r="F12" t="n">
-        <v>5230.88170322999</v>
+        <v>5259.24128329975</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-392.933359687898</v>
+        <v>-588.390616868426</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3205.73956502267</v>
+        <v>3077.81703843122</v>
       </c>
       <c r="C13" t="n">
-        <v>2176.18727763944</v>
+        <v>2158.2403689756</v>
       </c>
       <c r="D13" t="n">
-        <v>1695.79731483761</v>
+        <v>1675.41138207585</v>
       </c>
       <c r="E13" t="n">
-        <v>4644.70233259454</v>
+        <v>4649.6655142688</v>
       </c>
       <c r="F13" t="n">
-        <v>5481.50002826413</v>
+        <v>5496.52601613752</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-488.260434977327</v>
+        <v>-616.182961568785</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2708.21559493809</v>
+        <v>2638.86501740083</v>
       </c>
       <c r="C14" t="n">
-        <v>1630.70239110265</v>
+        <v>1610.34080903597</v>
       </c>
       <c r="D14" t="n">
-        <v>1214.16590511799</v>
+        <v>1192.77460565778</v>
       </c>
       <c r="E14" t="n">
-        <v>3886.333045914</v>
+        <v>3886.30131724561</v>
       </c>
       <c r="F14" t="n">
-        <v>4666.07259729171</v>
+        <v>4672.4715961686</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-466.784405061912</v>
+        <v>-536.134982599168</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2813.01480209488</v>
+        <v>2729.32765224683</v>
       </c>
       <c r="C15" t="n">
-        <v>1739.511421226</v>
+        <v>1739.52464419026</v>
       </c>
       <c r="D15" t="n">
-        <v>1309.75218349487</v>
+        <v>1309.74269034267</v>
       </c>
       <c r="E15" t="n">
-        <v>4368.68298326276</v>
+        <v>4382.52097324763</v>
       </c>
       <c r="F15" t="n">
-        <v>5238.55536039091</v>
+        <v>5264.21682509591</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-611.985197905125</v>
+        <v>-695.672347753173</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4452.06520055205</v>
+        <v>4416.81822216428</v>
       </c>
       <c r="C16" t="n">
-        <v>2621.59858095478</v>
+        <v>2488.70482349503</v>
       </c>
       <c r="D16" t="n">
-        <v>2436.89087428613</v>
+        <v>2287.36237824472</v>
       </c>
       <c r="E16" t="n">
-        <v>7405.78804909315</v>
+        <v>7411.73501952378</v>
       </c>
       <c r="F16" t="n">
-        <v>8611.05335181826</v>
+        <v>8631.88653216341</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2767.93479944795</v>
+        <v>-2803.18177783572</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5200.81375803505</v>
+        <v>5223.03847202361</v>
       </c>
       <c r="C17" t="n">
-        <v>3282.21763413367</v>
+        <v>3430.30802031048</v>
       </c>
       <c r="D17" t="n">
-        <v>2985.98714134414</v>
+        <v>3039.67502912922</v>
       </c>
       <c r="E17" t="n">
-        <v>8494.68924107114</v>
+        <v>8553.56763076136</v>
       </c>
       <c r="F17" t="n">
-        <v>9836.45052982079</v>
+        <v>9916.70539099096</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2647.18624196495</v>
+        <v>-2624.96152797639</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6096.14687846316</v>
+        <v>6046.3439826466</v>
       </c>
       <c r="C18" t="n">
-        <v>3831.207622359</v>
+        <v>3887.16365543681</v>
       </c>
       <c r="D18" t="n">
-        <v>3463.3292702407</v>
+        <v>3622.6919181778</v>
       </c>
       <c r="E18" t="n">
-        <v>9689.70911060613</v>
+        <v>9704.59289442059</v>
       </c>
       <c r="F18" t="n">
-        <v>11176.3123109961</v>
+        <v>11210.531155214</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1999.85312153684</v>
+        <v>-2049.6560173534</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6422.86557617782</v>
+        <v>6374.14238482837</v>
       </c>
       <c r="C19" t="n">
-        <v>4113.00361417104</v>
+        <v>4428.6760444569</v>
       </c>
       <c r="D19" t="n">
-        <v>3633.1504405902</v>
+        <v>3707.40582360852</v>
       </c>
       <c r="E19" t="n">
-        <v>10141.1914479731</v>
+        <v>10141.4878012786</v>
       </c>
       <c r="F19" t="n">
-        <v>11708.6015989006</v>
+        <v>11728.1233064593</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3247.13442382218</v>
+        <v>-3295.85761517163</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6276.83468386286</v>
+        <v>6327.70986662885</v>
       </c>
       <c r="C20" t="n">
-        <v>4338.00581906646</v>
+        <v>4381.9494475561</v>
       </c>
       <c r="D20" t="n">
-        <v>3491.54840414504</v>
+        <v>3491.61659027316</v>
       </c>
       <c r="E20" t="n">
-        <v>9822.9014126496</v>
+        <v>9881.69169354205</v>
       </c>
       <c r="F20" t="n">
-        <v>11403.4686612484</v>
+        <v>11487.1233444305</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2945.16531613714</v>
+        <v>-2894.29013337115</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5515.75629751937</v>
+        <v>5533.27152824328</v>
       </c>
       <c r="C21" t="n">
-        <v>3572.24646133236</v>
+        <v>3572.29823015917</v>
       </c>
       <c r="D21" t="n">
-        <v>2763.55358773768</v>
+        <v>2763.61725643628</v>
       </c>
       <c r="E21" t="n">
-        <v>8519.00216098006</v>
+        <v>8522.31271927047</v>
       </c>
       <c r="F21" t="n">
-        <v>10015.9782080162</v>
+        <v>10038.2851542436</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1351.24370248063</v>
+        <v>-1333.72847175672</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4188.77428312046</v>
+        <v>4160.54713047989</v>
       </c>
       <c r="C22" t="n">
-        <v>2274.99752473612</v>
+        <v>2275.02961213558</v>
       </c>
       <c r="D22" t="n">
-        <v>1645.25308091835</v>
+        <v>1645.27451758125</v>
       </c>
       <c r="E22" t="n">
-        <v>6529.08546925863</v>
+        <v>7003.54163953084</v>
       </c>
       <c r="F22" t="n">
-        <v>7551.56273391586</v>
+        <v>7608.94447347311</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1743.22571687954</v>
+        <v>-1771.45286952011</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3226.8789052484</v>
+        <v>3108.29615898312</v>
       </c>
       <c r="C23" t="n">
-        <v>1543.19149678273</v>
+        <v>1543.19193105938</v>
       </c>
       <c r="D23" t="n">
-        <v>1036.14847407148</v>
+        <v>1036.10521596404</v>
       </c>
       <c r="E23" t="n">
-        <v>5444.65589875805</v>
+        <v>5345.02102675244</v>
       </c>
       <c r="F23" t="n">
-        <v>6029.42772236003</v>
+        <v>6044.9694063597</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-395.121094751596</v>
+        <v>-513.703841016878</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3231.39442165279</v>
+        <v>3078.51810993883</v>
       </c>
       <c r="C24" t="n">
-        <v>1784.72864932199</v>
+        <v>1784.73798477184</v>
       </c>
       <c r="D24" t="n">
-        <v>1217.10518555377</v>
+        <v>1217.08362908942</v>
       </c>
       <c r="E24" t="n">
-        <v>5345.4804897291</v>
+        <v>5366.41520186928</v>
       </c>
       <c r="F24" t="n">
-        <v>6584.87057679468</v>
+        <v>6624.38708032587</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-417.605578347213</v>
+        <v>-570.481890061173</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3208.9805681149</v>
+        <v>3093.4355904365</v>
       </c>
       <c r="C25" t="n">
-        <v>1829.00664776947</v>
+        <v>1829.01944337789</v>
       </c>
       <c r="D25" t="n">
-        <v>1240.28644452059</v>
+        <v>1240.2691270058</v>
       </c>
       <c r="E25" t="n">
-        <v>5548.17988608299</v>
+        <v>5554.5106729348</v>
       </c>
       <c r="F25" t="n">
-        <v>6840.45062245375</v>
+        <v>6864.24851579489</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1710.0194318851</v>
+        <v>-1825.5644095635</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2782.53970601424</v>
+        <v>2673.02583958775</v>
       </c>
       <c r="C26" t="n">
-        <v>1423.24887290613</v>
+        <v>1423.24247969828</v>
       </c>
       <c r="D26" t="n">
-        <v>900.410172952505</v>
+        <v>900.346125206976</v>
       </c>
       <c r="E26" t="n">
-        <v>4747.48182214746</v>
+        <v>4747.41942605774</v>
       </c>
       <c r="F26" t="n">
-        <v>6019.09574740309</v>
+        <v>6019.00280129956</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1613.46029398576</v>
+        <v>-1722.97416041225</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2901.02374228052</v>
+        <v>2798.64000411022</v>
       </c>
       <c r="C27" t="n">
-        <v>1434.76508825466</v>
+        <v>1434.76969317065</v>
       </c>
       <c r="D27" t="n">
-        <v>895.199325928177</v>
+        <v>895.142445234842</v>
       </c>
       <c r="E27" t="n">
-        <v>5212.1253185196</v>
+        <v>5227.70212748088</v>
       </c>
       <c r="F27" t="n">
-        <v>6512.12694975406</v>
+        <v>6546.80997943455</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1787.97625771948</v>
+        <v>-1890.35999588978</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4492.49120697023</v>
+        <v>4394.98432264329</v>
       </c>
       <c r="C28" t="n">
-        <v>1966.39079028843</v>
+        <v>1828.6882590626</v>
       </c>
       <c r="D28" t="n">
-        <v>1535.41727108716</v>
+        <v>1494.68496708271</v>
       </c>
       <c r="E28" t="n">
-        <v>8519.52465684769</v>
+        <v>8526.04376173614</v>
       </c>
       <c r="F28" t="n">
-        <v>10256.408533646</v>
+        <v>10286.2498920417</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2163.50879302977</v>
+        <v>-2261.01567735671</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5099.40619556925</v>
+        <v>5150.22175785477</v>
       </c>
       <c r="C29" t="n">
-        <v>2250.60716164607</v>
+        <v>2700.84862409071</v>
       </c>
       <c r="D29" t="n">
-        <v>1752.80362725417</v>
+        <v>2259.92624032611</v>
       </c>
       <c r="E29" t="n">
-        <v>9679.54037829963</v>
+        <v>9742.79510907339</v>
       </c>
       <c r="F29" t="n">
-        <v>11577.9147412203</v>
+        <v>11672.8705211844</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2024.59380443075</v>
+        <v>-1973.77824214523</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6050.60374396076</v>
+        <v>6077.32564301404</v>
       </c>
       <c r="C30" t="n">
-        <v>2765.0224828787</v>
+        <v>3580.72456591906</v>
       </c>
       <c r="D30" t="n">
-        <v>2255.47681938644</v>
+        <v>2854.39879318209</v>
       </c>
       <c r="E30" t="n">
-        <v>10947.5111749827</v>
+        <v>10962.958422281</v>
       </c>
       <c r="F30" t="n">
-        <v>13016.0442543718</v>
+        <v>13060.1781440038</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2773.39625603924</v>
+        <v>-2746.67435698596</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6280.2282244919</v>
+        <v>6359.32491170967</v>
       </c>
       <c r="C31" t="n">
-        <v>3328.12089579642</v>
+        <v>4049.39530609866</v>
       </c>
       <c r="D31" t="n">
-        <v>2767.58894615949</v>
+        <v>2917.4000710482</v>
       </c>
       <c r="E31" t="n">
-        <v>11414.5143524357</v>
+        <v>11414.0149688365</v>
       </c>
       <c r="F31" t="n">
-        <v>13567.887417529</v>
+        <v>13595.5928534577</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3662.7717755081</v>
+        <v>-3583.67508829033</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6154.97589926117</v>
+        <v>6333.91285351869</v>
       </c>
       <c r="C32" t="n">
-        <v>3692.28111209629</v>
+        <v>3846.9857710463</v>
       </c>
       <c r="D32" t="n">
-        <v>2726.75566049589</v>
+        <v>2726.84837913829</v>
       </c>
       <c r="E32" t="n">
-        <v>11057.9120193171</v>
+        <v>11119.7727415263</v>
       </c>
       <c r="F32" t="n">
-        <v>13208.9300801451</v>
+        <v>13305.8818659693</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3528.02410073883</v>
+        <v>-3349.08714648131</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5431.84514267366</v>
+        <v>5627.64084485247</v>
       </c>
       <c r="C33" t="n">
-        <v>3095.90185126986</v>
+        <v>3095.97376120781</v>
       </c>
       <c r="D33" t="n">
-        <v>2097.16758041329</v>
+        <v>2097.24453248857</v>
       </c>
       <c r="E33" t="n">
-        <v>9645.48706946033</v>
+        <v>9647.80692968859</v>
       </c>
       <c r="F33" t="n">
-        <v>11672.1026595921</v>
+        <v>11701.5435173586</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2455.15485732634</v>
+        <v>-2259.35915514753</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4063.49757659111</v>
+        <v>4252.12009312359</v>
       </c>
       <c r="C34" t="n">
-        <v>1908.87651100061</v>
+        <v>1908.91539448332</v>
       </c>
       <c r="D34" t="n">
-        <v>1158.23136849766</v>
+        <v>1158.22769258009</v>
       </c>
       <c r="E34" t="n">
-        <v>7196.2425014789</v>
+        <v>7404.81114786538</v>
       </c>
       <c r="F34" t="n">
-        <v>8948.05095962559</v>
+        <v>9015.3297092451</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1247.50242340889</v>
+        <v>-1058.87990687641</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3199.6656779107</v>
+        <v>3238.91307044606</v>
       </c>
       <c r="C35" t="n">
-        <v>1251.3782561686</v>
+        <v>1251.36725798901</v>
       </c>
       <c r="D35" t="n">
-        <v>669.263043288077</v>
+        <v>669.152671675064</v>
       </c>
       <c r="E35" t="n">
-        <v>6086.88751748843</v>
+        <v>6373.25398442755</v>
       </c>
       <c r="F35" t="n">
-        <v>7309.70741139115</v>
+        <v>7309.59515776113</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>664.665677910702</v>
+        <v>703.913070446056</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3223.3038939989</v>
+        <v>3203.57093685812</v>
       </c>
       <c r="C36" t="n">
-        <v>1464.35462556352</v>
+        <v>1464.36080327259</v>
       </c>
       <c r="D36" t="n">
-        <v>809.184404188322</v>
+        <v>809.111425099141</v>
       </c>
       <c r="E36" t="n">
-        <v>6185.03659412854</v>
+        <v>6206.34573909875</v>
       </c>
       <c r="F36" t="n">
-        <v>8073.7832870939</v>
+        <v>8073.67477045514</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>654.303893998904</v>
+        <v>634.570936858116</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3153.59398599711</v>
+        <v>3105.46080171114</v>
       </c>
       <c r="C37" t="n">
-        <v>1501.83211585826</v>
+        <v>1501.84311603694</v>
       </c>
       <c r="D37" t="n">
-        <v>825.299313086099</v>
+        <v>825.231976279015</v>
       </c>
       <c r="E37" t="n">
-        <v>6396.65240871717</v>
+        <v>6401.90095221401</v>
       </c>
       <c r="F37" t="n">
-        <v>8363.36886363067</v>
+        <v>8363.26792475177</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1333.59398599711</v>
+        <v>1285.46080171114</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2770.06325645664</v>
+        <v>2681.0388686115</v>
       </c>
       <c r="C38" t="n">
-        <v>1142.63294805888</v>
+        <v>1142.61103011955</v>
       </c>
       <c r="D38" t="n">
-        <v>561.880191489424</v>
+        <v>561.734924815655</v>
       </c>
       <c r="E38" t="n">
-        <v>5734.84349202723</v>
+        <v>5734.74060000484</v>
       </c>
       <c r="F38" t="n">
-        <v>7668.67899565738</v>
+        <v>7668.5447479706</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>452.063256456635</v>
+        <v>363.038868611502</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2897.56474961428</v>
+        <v>2847.83563610983</v>
       </c>
       <c r="C39" t="n">
-        <v>1151.79777241534</v>
+        <v>1151.78628677458</v>
       </c>
       <c r="D39" t="n">
-        <v>556.918095089054</v>
+        <v>556.777409571633</v>
       </c>
       <c r="E39" t="n">
-        <v>6015.87578026414</v>
+        <v>6030.97387880348</v>
       </c>
       <c r="F39" t="n">
-        <v>7936.57714599286</v>
+        <v>7936.46580571733</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2764.43525038572</v>
+        <v>-2814.16436389017</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4520.96512971617</v>
+        <v>4513.87193059936</v>
       </c>
       <c r="C40" t="n">
-        <v>1333.53513567636</v>
+        <v>1602.3348513684</v>
       </c>
       <c r="D40" t="n">
-        <v>1125.05589416026</v>
+        <v>1133.10338241873</v>
       </c>
       <c r="E40" t="n">
-        <v>9568.36934699627</v>
+        <v>9572.85973601276</v>
       </c>
       <c r="F40" t="n">
-        <v>11800.398602422</v>
+        <v>11835.705477338</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2022.03487028383</v>
+        <v>-2029.12806940064</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>4975.50714692157</v>
+        <v>4979.88308026091</v>
       </c>
       <c r="C41" t="n">
-        <v>1377.24683688247</v>
+        <v>2164.94860723778</v>
       </c>
       <c r="D41" t="n">
-        <v>1070.1652241003</v>
+        <v>1648.79182821203</v>
       </c>
       <c r="E41" t="n">
-        <v>10796.6579388954</v>
+        <v>10861.2106727354</v>
       </c>
       <c r="F41" t="n">
-        <v>13213.4158047393</v>
+        <v>13318.7934484251</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2701.49285307843</v>
+        <v>-2697.11691973909</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6011.66763725157</v>
+        <v>6159.1585776981</v>
       </c>
       <c r="C42" t="n">
-        <v>1768.47620439158</v>
+        <v>3162.33357566416</v>
       </c>
       <c r="D42" t="n">
-        <v>1217.89994251328</v>
+        <v>2151.45559012939</v>
       </c>
       <c r="E42" t="n">
-        <v>12134.7960344282</v>
+        <v>12148.0579402841</v>
       </c>
       <c r="F42" t="n">
-        <v>14745.3163759717</v>
+        <v>14795.6031428028</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3055.33236274843</v>
+        <v>-2907.8414223019</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6292.73234303618</v>
+        <v>6488.73284012511</v>
       </c>
       <c r="C43" t="n">
-        <v>2597.21389604538</v>
+        <v>3513.19166020524</v>
       </c>
       <c r="D43" t="n">
-        <v>1831.14561875674</v>
+        <v>2201.61882048859</v>
       </c>
       <c r="E43" t="n">
-        <v>12620.2865184947</v>
+        <v>12616.4145487701</v>
       </c>
       <c r="F43" t="n">
-        <v>15321.1574105</v>
+        <v>15353.5505201108</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2033.26765696382</v>
+        <v>-1837.26715987489</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6132.1769948323</v>
+        <v>6484.16598885082</v>
       </c>
       <c r="C44" t="n">
-        <v>3282.84319608845</v>
+        <v>3323.85390261969</v>
       </c>
       <c r="D44" t="n">
-        <v>2036.41531244868</v>
+        <v>2036.5222093788</v>
       </c>
       <c r="E44" t="n">
-        <v>12233.0807853614</v>
+        <v>12295.2031393442</v>
       </c>
       <c r="F44" t="n">
-        <v>15030.7658493764</v>
+        <v>15031.1859605455</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3031.8230051677</v>
+        <v>-2679.83401114918</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5430.25271895209</v>
+        <v>5750.5345608542</v>
       </c>
       <c r="C45" t="n">
-        <v>2633.37387178122</v>
+        <v>2633.46636805767</v>
       </c>
       <c r="D45" t="n">
-        <v>1506.45923179253</v>
+        <v>1506.5295913893</v>
       </c>
       <c r="E45" t="n">
-        <v>10725.3820313831</v>
+        <v>10724.5269556317</v>
       </c>
       <c r="F45" t="n">
-        <v>13623.0419498837</v>
+        <v>13623.2890094579</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2923.74728104791</v>
+        <v>-2603.4654391458</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4190.4078379091</v>
+        <v>4375.93386195263</v>
       </c>
       <c r="C46" t="n">
-        <v>1560.35556188795</v>
+        <v>1560.3944819677</v>
       </c>
       <c r="D46" t="n">
-        <v>747.742887810605</v>
+        <v>747.676983686306</v>
       </c>
       <c r="E46" t="n">
-        <v>8117.91214728517</v>
+        <v>8143.89321606113</v>
       </c>
       <c r="F46" t="n">
-        <v>10901.0962663474</v>
+        <v>10901.069792697</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1796.5921620909</v>
+        <v>-1611.06613804737</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3240.90746205797</v>
+        <v>3384.46981849123</v>
       </c>
       <c r="C47" t="n">
-        <v>979.514189731485</v>
+        <v>979.479505317791</v>
       </c>
       <c r="D47" t="n">
-        <v>378.150546379717</v>
+        <v>377.92430838113</v>
       </c>
       <c r="E47" t="n">
-        <v>6662.4003810546</v>
+        <v>6682.79205605582</v>
       </c>
       <c r="F47" t="n">
-        <v>9211.87921289487</v>
+        <v>9211.74133786857</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1236.09253794203</v>
+        <v>-1092.53018150877</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3252.88459366779</v>
+        <v>3280.33252241792</v>
       </c>
       <c r="C48" t="n">
-        <v>1163.49497256188</v>
+        <v>1163.4871952251</v>
       </c>
       <c r="D48" t="n">
-        <v>478.645564234973</v>
+        <v>478.474748435679</v>
       </c>
       <c r="E48" t="n">
-        <v>7355.15813636126</v>
+        <v>7355.02793230663</v>
       </c>
       <c r="F48" t="n">
-        <v>10092.5313654334</v>
+        <v>10092.4167159238</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1287.11540633221</v>
+        <v>-1259.66747758208</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3223.54084587535</v>
+        <v>3154.84830862451</v>
       </c>
       <c r="C49" t="n">
-        <v>1194.38066689333</v>
+        <v>1194.37901429571</v>
       </c>
       <c r="D49" t="n">
-        <v>488.772894613291</v>
+        <v>488.608615975728</v>
       </c>
       <c r="E49" t="n">
-        <v>7597.55553546768</v>
+        <v>7597.42923315406</v>
       </c>
       <c r="F49" t="n">
-        <v>10432.0063540275</v>
+        <v>10431.907215578</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-519.459154124646</v>
+        <v>-588.15169137549</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2537.05325535266</v>
+        <v>2572.20275205026</v>
       </c>
       <c r="C2" t="n">
-        <v>1984.54888926314</v>
+        <v>1990.94552565737</v>
       </c>
       <c r="D2" t="n">
-        <v>1781.10042027737</v>
+        <v>1787.06927713909</v>
       </c>
       <c r="E2" t="n">
-        <v>3072.31132529629</v>
+        <v>3072.33200885763</v>
       </c>
       <c r="F2" t="n">
-        <v>3363.86049637916</v>
+        <v>3363.89595197795</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>92.0532553526564</v>
+        <v>127.202752050257</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2593.48112579995</v>
+        <v>2639.78918530566</v>
       </c>
       <c r="C3" t="n">
-        <v>2106.45612056326</v>
+        <v>2106.4324254085</v>
       </c>
       <c r="D3" t="n">
-        <v>1857.05272457034</v>
+        <v>1857.02841165358</v>
       </c>
       <c r="E3" t="n">
-        <v>3353.09791768349</v>
+        <v>3354.81174054787</v>
       </c>
       <c r="F3" t="n">
-        <v>3700.1121971515</v>
+        <v>3701.48330156449</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1660.48112579995</v>
+        <v>1706.78918530566</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4585.01756178904</v>
+        <v>4621.17256902415</v>
       </c>
       <c r="C4" t="n">
-        <v>3599.20836651391</v>
+        <v>3747.1947461551</v>
       </c>
       <c r="D4" t="n">
-        <v>3485.4462368644</v>
+        <v>3485.60328678076</v>
       </c>
       <c r="E4" t="n">
-        <v>6058.47101468515</v>
+        <v>6061.26466629843</v>
       </c>
       <c r="F4" t="n">
-        <v>6611.18879296521</v>
+        <v>6612.94688593017</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1077.01756178904</v>
+        <v>1113.17256902415</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5230.69848125043</v>
+        <v>5278.81200040951</v>
       </c>
       <c r="C5" t="n">
-        <v>4009.64890752644</v>
+        <v>4197.8071637364</v>
       </c>
       <c r="D5" t="n">
-        <v>3812.17145532786</v>
+        <v>3868.95838552112</v>
       </c>
       <c r="E5" t="n">
-        <v>7133.85090937864</v>
+        <v>7107.37829540463</v>
       </c>
       <c r="F5" t="n">
-        <v>7806.80440235158</v>
+        <v>7777.11927299469</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-129.301518749568</v>
+        <v>-81.1879995904874</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6125.00052544086</v>
+        <v>6258.88281186788</v>
       </c>
       <c r="C6" t="n">
-        <v>4610.78505273494</v>
+        <v>4939.60753901473</v>
       </c>
       <c r="D6" t="n">
-        <v>4301.17867783317</v>
+        <v>4467.99106945891</v>
       </c>
       <c r="E6" t="n">
-        <v>8223.83011974576</v>
+        <v>8224.06638318932</v>
       </c>
       <c r="F6" t="n">
-        <v>9019.22378387279</v>
+        <v>9017.03475750723</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>861.000525440863</v>
+        <v>994.882811867878</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6492.07451787796</v>
+        <v>6687.01749759365</v>
       </c>
       <c r="C7" t="n">
-        <v>5190.73857778658</v>
+        <v>5190.68809885786</v>
       </c>
       <c r="D7" t="n">
-        <v>4615.37904231789</v>
+        <v>4615.32182182604</v>
       </c>
       <c r="E7" t="n">
-        <v>8665.80292257837</v>
+        <v>8696.50343981813</v>
       </c>
       <c r="F7" t="n">
-        <v>9548.28120143024</v>
+        <v>9577.78440787183</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>299.074517877963</v>
+        <v>494.017497593653</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6312.13550594931</v>
+        <v>6559.71436554418</v>
       </c>
       <c r="C8" t="n">
-        <v>4811.33709875243</v>
+        <v>4956.82440771123</v>
       </c>
       <c r="D8" t="n">
-        <v>4327.80860883783</v>
+        <v>4366.31159754117</v>
       </c>
       <c r="E8" t="n">
-        <v>8466.94229596671</v>
+        <v>8447.82957064792</v>
       </c>
       <c r="F8" t="n">
-        <v>9396.50221562133</v>
+        <v>9372.90021516857</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1340.13550594931</v>
+        <v>1587.71436554418</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5502.00463766741</v>
+        <v>5717.93740788259</v>
       </c>
       <c r="C9" t="n">
-        <v>4083.87163209392</v>
+        <v>4083.83587090505</v>
       </c>
       <c r="D9" t="n">
-        <v>3531.65946007495</v>
+        <v>3531.61468845555</v>
       </c>
       <c r="E9" t="n">
-        <v>7257.91934394683</v>
+        <v>7287.25501368303</v>
       </c>
       <c r="F9" t="n">
-        <v>8161.15165773869</v>
+        <v>8189.15969989382</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>530.004637667413</v>
+        <v>745.937407882593</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4021.77793567415</v>
+        <v>4160.35369060345</v>
       </c>
       <c r="C10" t="n">
-        <v>2672.60628877495</v>
+        <v>2672.58312230565</v>
       </c>
       <c r="D10" t="n">
-        <v>2224.78911229331</v>
+        <v>2224.76351174621</v>
       </c>
       <c r="E10" t="n">
-        <v>5626.70242778296</v>
+        <v>5761.73653600922</v>
       </c>
       <c r="F10" t="n">
-        <v>6058.73190694369</v>
+        <v>6035.95909454476</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-470.222064325852</v>
+        <v>-331.64630939655</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2944.76136511447</v>
+        <v>3083.78511749756</v>
       </c>
       <c r="C11" t="n">
-        <v>1864.17423180044</v>
+        <v>1864.16803940872</v>
       </c>
       <c r="D11" t="n">
-        <v>1477.82115486479</v>
+        <v>1489.11814114028</v>
       </c>
       <c r="E11" t="n">
-        <v>4175.63785952438</v>
+        <v>4425.0552576025</v>
       </c>
       <c r="F11" t="n">
-        <v>4726.09644264318</v>
+        <v>4735.03967863949</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-261.238634885533</v>
+        <v>-122.214882502443</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3022.60938313157</v>
+        <v>3160.00533464243</v>
       </c>
       <c r="C12" t="n">
-        <v>2112.43781065982</v>
+        <v>2115.39107714259</v>
       </c>
       <c r="D12" t="n">
-        <v>1652.70379843085</v>
+        <v>1656.95567774441</v>
       </c>
       <c r="E12" t="n">
-        <v>4464.28013719681</v>
+        <v>4457.62766230106</v>
       </c>
       <c r="F12" t="n">
-        <v>5259.24128329975</v>
+        <v>5248.67384456443</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-588.390616868426</v>
+        <v>-450.994665357574</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3077.81703843122</v>
+        <v>3191.4404749693</v>
       </c>
       <c r="C13" t="n">
-        <v>2158.2403689756</v>
+        <v>2175.51158214506</v>
       </c>
       <c r="D13" t="n">
-        <v>1675.41138207585</v>
+        <v>1692.15383586757</v>
       </c>
       <c r="E13" t="n">
-        <v>4649.6655142688</v>
+        <v>4664.32783495081</v>
       </c>
       <c r="F13" t="n">
-        <v>5496.52601613752</v>
+        <v>5509.1164727382</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-616.182961568785</v>
+        <v>-502.559525030699</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2638.86501740083</v>
+        <v>2737.03540391541</v>
       </c>
       <c r="C14" t="n">
-        <v>1610.34080903597</v>
+        <v>1627.62592593388</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.77460565778</v>
+        <v>1208.91649566044</v>
       </c>
       <c r="E14" t="n">
-        <v>3886.30131724561</v>
+        <v>3894.22816877782</v>
       </c>
       <c r="F14" t="n">
-        <v>4672.4715961686</v>
+        <v>4688.01374232349</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-536.134982599168</v>
+        <v>-437.964596084594</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2729.32765224683</v>
+        <v>2830.34866332889</v>
       </c>
       <c r="C15" t="n">
-        <v>1739.52464419026</v>
+        <v>1739.51274386672</v>
       </c>
       <c r="D15" t="n">
-        <v>1309.74269034267</v>
+        <v>1309.75123326268</v>
       </c>
       <c r="E15" t="n">
-        <v>4382.52097324763</v>
+        <v>4393.16097380905</v>
       </c>
       <c r="F15" t="n">
-        <v>5264.21682509591</v>
+        <v>5272.20524147891</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-695.672347753173</v>
+        <v>-594.651336671109</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4416.81822216428</v>
+        <v>4456.74281602137</v>
       </c>
       <c r="C16" t="n">
-        <v>2488.70482349503</v>
+        <v>2675.16314910194</v>
       </c>
       <c r="D16" t="n">
-        <v>2287.36237824472</v>
+        <v>2467.48430094496</v>
       </c>
       <c r="E16" t="n">
-        <v>7411.73501952378</v>
+        <v>7427.23358128313</v>
       </c>
       <c r="F16" t="n">
-        <v>8631.88653216341</v>
+        <v>8643.43194453425</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2803.18177783572</v>
+        <v>-2763.25718397863</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5223.03847202361</v>
+        <v>5439.895494049</v>
       </c>
       <c r="C17" t="n">
-        <v>3430.30802031048</v>
+        <v>3780.98595055333</v>
       </c>
       <c r="D17" t="n">
-        <v>3039.67502912922</v>
+        <v>3039.60984448802</v>
       </c>
       <c r="E17" t="n">
-        <v>8553.56763076136</v>
+        <v>8538.11928162983</v>
       </c>
       <c r="F17" t="n">
-        <v>9916.70539099096</v>
+        <v>9893.81097414991</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2624.96152797639</v>
+        <v>-2408.104505951</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6046.3439826466</v>
+        <v>6393.94183436342</v>
       </c>
       <c r="C18" t="n">
-        <v>3887.16365543681</v>
+        <v>4348.03242544676</v>
       </c>
       <c r="D18" t="n">
-        <v>3622.6919181778</v>
+        <v>3632.09876793245</v>
       </c>
       <c r="E18" t="n">
-        <v>9704.59289442059</v>
+        <v>9720.33828927349</v>
       </c>
       <c r="F18" t="n">
-        <v>11210.531155214</v>
+        <v>11220.8367326124</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2049.6560173534</v>
+        <v>-1702.05816563658</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6374.14238482837</v>
+        <v>6873.31076837848</v>
       </c>
       <c r="C19" t="n">
-        <v>4428.6760444569</v>
+        <v>4597.30798659913</v>
       </c>
       <c r="D19" t="n">
-        <v>3707.40582360852</v>
+        <v>3707.33877406645</v>
       </c>
       <c r="E19" t="n">
-        <v>10141.4878012786</v>
+        <v>10191.4022820746</v>
       </c>
       <c r="F19" t="n">
-        <v>11728.1233064593</v>
+        <v>11775.1334087654</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3295.85761517163</v>
+        <v>-2796.68923162152</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6327.70986662885</v>
+        <v>6809.64560121458</v>
       </c>
       <c r="C20" t="n">
-        <v>4381.9494475561</v>
+        <v>4381.9010556836</v>
       </c>
       <c r="D20" t="n">
-        <v>3491.61659027316</v>
+        <v>3491.5552256141</v>
       </c>
       <c r="E20" t="n">
-        <v>9881.69169354205</v>
+        <v>9877.14379840512</v>
       </c>
       <c r="F20" t="n">
-        <v>11487.1233444305</v>
+        <v>11474.7707997764</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2894.29013337115</v>
+        <v>-2412.35439878542</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5533.27152824328</v>
+        <v>6211.42708879464</v>
       </c>
       <c r="C21" t="n">
-        <v>3572.29823015917</v>
+        <v>3572.25164044213</v>
       </c>
       <c r="D21" t="n">
-        <v>2763.61725643628</v>
+        <v>2763.55995680158</v>
       </c>
       <c r="E21" t="n">
-        <v>8522.31271927047</v>
+        <v>8569.82295671334</v>
       </c>
       <c r="F21" t="n">
-        <v>10038.2851542436</v>
+        <v>10083.4250176772</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1333.72847175672</v>
+        <v>-655.572911205359</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4160.54713047989</v>
+        <v>4727.51960831672</v>
       </c>
       <c r="C22" t="n">
-        <v>2275.02961213558</v>
+        <v>2275.00073445183</v>
       </c>
       <c r="D22" t="n">
-        <v>1645.27451758125</v>
+        <v>1645.25522478535</v>
       </c>
       <c r="E22" t="n">
-        <v>7003.54163953084</v>
+        <v>7229.65640388393</v>
       </c>
       <c r="F22" t="n">
-        <v>7608.94447347311</v>
+        <v>7624.33668018669</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1771.45286952011</v>
+        <v>-1204.48039168328</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3108.29615898312</v>
+        <v>3355.83040760534</v>
       </c>
       <c r="C23" t="n">
-        <v>1543.19193105938</v>
+        <v>1543.19153963388</v>
       </c>
       <c r="D23" t="n">
-        <v>1036.10521596404</v>
+        <v>1036.14414539061</v>
       </c>
       <c r="E23" t="n">
-        <v>5345.02102675244</v>
+        <v>5270.55310961148</v>
       </c>
       <c r="F23" t="n">
-        <v>6044.9694063597</v>
+        <v>6063.53863786345</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-513.703841016878</v>
+        <v>-266.16959239466</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3078.51810993883</v>
+        <v>3202.17195444035</v>
       </c>
       <c r="C24" t="n">
-        <v>1784.73798477184</v>
+        <v>1784.72958252457</v>
       </c>
       <c r="D24" t="n">
-        <v>1217.08362908942</v>
+        <v>1217.10302796117</v>
       </c>
       <c r="E24" t="n">
-        <v>5366.41520186928</v>
+        <v>5371.20918529915</v>
       </c>
       <c r="F24" t="n">
-        <v>6624.38708032587</v>
+        <v>6623.80264183112</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-570.481890061173</v>
+        <v>-446.828045559646</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3093.4355904365</v>
+        <v>3248.37574806157</v>
       </c>
       <c r="C25" t="n">
-        <v>1829.01944337789</v>
+        <v>1829.00792712152</v>
       </c>
       <c r="D25" t="n">
-        <v>1240.2691270058</v>
+        <v>1240.28471098473</v>
       </c>
       <c r="E25" t="n">
-        <v>5554.5106729348</v>
+        <v>5583.33555580118</v>
       </c>
       <c r="F25" t="n">
-        <v>6864.24851579489</v>
+        <v>6890.50813634256</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1825.5644095635</v>
+        <v>-1670.62425193843</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2673.02583958775</v>
+        <v>2842.38299575163</v>
       </c>
       <c r="C26" t="n">
-        <v>1423.24247969828</v>
+        <v>1423.24823245191</v>
       </c>
       <c r="D26" t="n">
-        <v>900.346125206976</v>
+        <v>900.403764072429</v>
       </c>
       <c r="E26" t="n">
-        <v>4747.41942605774</v>
+        <v>4747.47558041494</v>
       </c>
       <c r="F26" t="n">
-        <v>6019.00280129956</v>
+        <v>6019.0864500079</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1722.97416041225</v>
+        <v>-1553.61700424837</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2798.64000411022</v>
+        <v>2946.72023296707</v>
       </c>
       <c r="C27" t="n">
-        <v>1434.76969317065</v>
+        <v>1434.76554859017</v>
       </c>
       <c r="D27" t="n">
-        <v>895.142445234842</v>
+        <v>895.193634349257</v>
       </c>
       <c r="E27" t="n">
-        <v>5227.70212748088</v>
+        <v>5251.82313905675</v>
       </c>
       <c r="F27" t="n">
-        <v>6546.80997943455</v>
+        <v>6567.83676283106</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1890.35999588978</v>
+        <v>-1742.27976703293</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4394.98432264329</v>
+        <v>4534.11860889966</v>
       </c>
       <c r="C28" t="n">
-        <v>1828.6882590626</v>
+        <v>2238.81758237349</v>
       </c>
       <c r="D28" t="n">
-        <v>1494.68496708271</v>
+        <v>1937.22633815293</v>
       </c>
       <c r="E28" t="n">
-        <v>8526.04376173614</v>
+        <v>8559.27469317333</v>
       </c>
       <c r="F28" t="n">
-        <v>10286.2498920417</v>
+        <v>10314.6734596796</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2261.01567735671</v>
+        <v>-2121.88139110034</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5150.22175785477</v>
+        <v>5445.78511760666</v>
       </c>
       <c r="C29" t="n">
-        <v>2700.84862409071</v>
+        <v>2991.79526356516</v>
       </c>
       <c r="D29" t="n">
-        <v>2259.92624032611</v>
+        <v>2343.12151936284</v>
       </c>
       <c r="E29" t="n">
-        <v>9742.79510907339</v>
+        <v>9743.94465460174</v>
       </c>
       <c r="F29" t="n">
-        <v>11672.8705211844</v>
+        <v>11664.6870168885</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1973.77824214523</v>
+        <v>-1678.21488239334</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6077.32564301404</v>
+        <v>6433.40511856202</v>
       </c>
       <c r="C30" t="n">
-        <v>3580.72456591906</v>
+        <v>3943.61197979879</v>
       </c>
       <c r="D30" t="n">
-        <v>2854.39879318209</v>
+        <v>2854.31259377546</v>
       </c>
       <c r="E30" t="n">
-        <v>10962.958422281</v>
+        <v>10999.0314394218</v>
       </c>
       <c r="F30" t="n">
-        <v>13060.1781440038</v>
+        <v>13089.7243699813</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2746.67435698596</v>
+        <v>-2390.59488143798</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6359.32491170967</v>
+        <v>6883.69903510923</v>
       </c>
       <c r="C31" t="n">
-        <v>4049.39530609866</v>
+        <v>4049.32147167665</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.4000710482</v>
+        <v>2917.31060221883</v>
       </c>
       <c r="E31" t="n">
-        <v>11414.0149688365</v>
+        <v>11487.2092952379</v>
       </c>
       <c r="F31" t="n">
-        <v>13595.5928534577</v>
+        <v>13665.6951179149</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3583.67508829033</v>
+        <v>-3059.30096489077</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6333.91285351869</v>
+        <v>6855.42496972553</v>
       </c>
       <c r="C32" t="n">
-        <v>3846.9857710463</v>
+        <v>3846.91782069451</v>
       </c>
       <c r="D32" t="n">
-        <v>2726.84837913829</v>
+        <v>2726.76493628984</v>
       </c>
       <c r="E32" t="n">
-        <v>11119.7727415263</v>
+        <v>11134.4176647236</v>
       </c>
       <c r="F32" t="n">
-        <v>13305.8818659693</v>
+        <v>13311.2387071195</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3349.08714648131</v>
+        <v>-2827.57503027447</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5627.64084485247</v>
+        <v>6114.33631737048</v>
       </c>
       <c r="C33" t="n">
-        <v>3095.97376120781</v>
+        <v>3095.90904541359</v>
       </c>
       <c r="D33" t="n">
-        <v>2097.24453248857</v>
+        <v>2097.17527848645</v>
       </c>
       <c r="E33" t="n">
-        <v>9647.80692968859</v>
+        <v>9716.96919758208</v>
       </c>
       <c r="F33" t="n">
-        <v>11701.5435173586</v>
+        <v>11768.5222783629</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2259.35915514753</v>
+        <v>-1772.66368262952</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4252.12009312359</v>
+        <v>4441.37332308244</v>
       </c>
       <c r="C34" t="n">
-        <v>1908.91539448332</v>
+        <v>1908.88040072469</v>
       </c>
       <c r="D34" t="n">
-        <v>1158.22769258009</v>
+        <v>1158.23099992112</v>
       </c>
       <c r="E34" t="n">
-        <v>7404.81114786538</v>
+        <v>7242.60089429465</v>
       </c>
       <c r="F34" t="n">
-        <v>9015.3297092451</v>
+        <v>9015.11955247209</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1058.87990687641</v>
+        <v>-869.626676917561</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3238.91307044606</v>
+        <v>3347.88070298965</v>
       </c>
       <c r="C35" t="n">
-        <v>1251.36725798901</v>
+        <v>1251.37715529486</v>
       </c>
       <c r="D35" t="n">
-        <v>669.152671675064</v>
+        <v>669.251999531072</v>
       </c>
       <c r="E35" t="n">
-        <v>6373.25398442755</v>
+        <v>6107.33219804012</v>
       </c>
       <c r="F35" t="n">
-        <v>7309.59515776113</v>
+        <v>7309.69618277535</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>703.913070446056</v>
+        <v>812.880702989649</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3203.57093685812</v>
+        <v>3253.90167179179</v>
       </c>
       <c r="C36" t="n">
-        <v>1464.36080327259</v>
+        <v>1464.35524299054</v>
       </c>
       <c r="D36" t="n">
-        <v>809.111425099141</v>
+        <v>809.177101677398</v>
       </c>
       <c r="E36" t="n">
-        <v>6206.34573909875</v>
+        <v>6225.78695476384</v>
       </c>
       <c r="F36" t="n">
-        <v>8073.67477045514</v>
+        <v>8073.77243166584</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>634.570936858116</v>
+        <v>684.90167179179</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3105.46080171114</v>
+        <v>3317.82169140708</v>
       </c>
       <c r="C37" t="n">
-        <v>1501.84311603694</v>
+        <v>1501.83321574786</v>
       </c>
       <c r="D37" t="n">
-        <v>825.231976279015</v>
+        <v>825.292575058944</v>
       </c>
       <c r="E37" t="n">
-        <v>6401.90095221401</v>
+        <v>6447.74490673199</v>
       </c>
       <c r="F37" t="n">
-        <v>8363.26792475177</v>
+        <v>8363.35876609502</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1285.46080171114</v>
+        <v>1497.82169140708</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2681.0388686115</v>
+        <v>2897.72076535064</v>
       </c>
       <c r="C38" t="n">
-        <v>1142.61103011955</v>
+        <v>1142.63075446668</v>
       </c>
       <c r="D38" t="n">
-        <v>561.734924815655</v>
+        <v>561.865656034146</v>
       </c>
       <c r="E38" t="n">
-        <v>5734.74060000484</v>
+        <v>5734.83319858427</v>
       </c>
       <c r="F38" t="n">
-        <v>7668.5447479706</v>
+        <v>7668.66556509055</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>363.038868611502</v>
+        <v>579.720765350643</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2847.83563610983</v>
+        <v>2998.52868347216</v>
       </c>
       <c r="C39" t="n">
-        <v>1151.78628677458</v>
+        <v>1151.79662291997</v>
       </c>
       <c r="D39" t="n">
-        <v>556.777409571633</v>
+        <v>556.904018032059</v>
       </c>
       <c r="E39" t="n">
-        <v>6030.97387880348</v>
+        <v>6071.32085331918</v>
       </c>
       <c r="F39" t="n">
-        <v>7936.46580571733</v>
+        <v>7936.56600833849</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2814.16436389017</v>
+        <v>-2663.47131652784</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4513.87193059936</v>
+        <v>4591.46710992684</v>
       </c>
       <c r="C40" t="n">
-        <v>1602.3348513684</v>
+        <v>2178.21345746216</v>
       </c>
       <c r="D40" t="n">
-        <v>1133.10338241873</v>
+        <v>1466.26693452937</v>
       </c>
       <c r="E40" t="n">
-        <v>9572.85973601276</v>
+        <v>9626.85909095167</v>
       </c>
       <c r="F40" t="n">
-        <v>11835.705477338</v>
+        <v>11885.0509027525</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2029.12806940064</v>
+        <v>-1951.53289007316</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>4979.88308026091</v>
+        <v>5575.88840939652</v>
       </c>
       <c r="C41" t="n">
-        <v>2164.94860723778</v>
+        <v>2457.96395624202</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.79182821203</v>
+        <v>1722.85889423402</v>
       </c>
       <c r="E41" t="n">
-        <v>10861.2106727354</v>
+        <v>10882.3033820555</v>
       </c>
       <c r="F41" t="n">
-        <v>13318.7934484251</v>
+        <v>13329.8299036657</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2697.11691973909</v>
+        <v>-2101.11159060348</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6159.1585776981</v>
+        <v>6504.33734878289</v>
       </c>
       <c r="C42" t="n">
-        <v>3162.33357566416</v>
+        <v>3367.37763206215</v>
       </c>
       <c r="D42" t="n">
-        <v>2151.45559012939</v>
+        <v>2151.35488903287</v>
       </c>
       <c r="E42" t="n">
-        <v>12148.0579402841</v>
+        <v>12207.5944712529</v>
       </c>
       <c r="F42" t="n">
-        <v>14795.6031428028</v>
+        <v>14848.5599366921</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2907.8414223019</v>
+        <v>-2562.66265121711</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6488.73284012511</v>
+        <v>6947.79573341074</v>
       </c>
       <c r="C43" t="n">
-        <v>3513.19166020524</v>
+        <v>3513.09465527914</v>
       </c>
       <c r="D43" t="n">
-        <v>2201.61882048859</v>
+        <v>2201.51343678668</v>
       </c>
       <c r="E43" t="n">
-        <v>12616.4145487701</v>
+        <v>12715.7700120407</v>
       </c>
       <c r="F43" t="n">
-        <v>15353.5505201108</v>
+        <v>15450.5158428816</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1837.26715987489</v>
+        <v>-1378.20426658926</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6484.16598885082</v>
+        <v>6932.55777368015</v>
       </c>
       <c r="C44" t="n">
-        <v>3323.85390261969</v>
+        <v>3323.76263503061</v>
       </c>
       <c r="D44" t="n">
-        <v>2036.5222093788</v>
+        <v>2036.42600693291</v>
       </c>
       <c r="E44" t="n">
-        <v>12295.2031393442</v>
+        <v>12332.2112998561</v>
       </c>
       <c r="F44" t="n">
-        <v>15031.1859605455</v>
+        <v>15053.8815658716</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2679.83401114918</v>
+        <v>-2231.44222631985</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5750.5345608542</v>
+        <v>6115.13398027428</v>
       </c>
       <c r="C45" t="n">
-        <v>2633.46636805767</v>
+        <v>2633.38312573204</v>
       </c>
       <c r="D45" t="n">
-        <v>1506.5295913893</v>
+        <v>1506.46627044978</v>
       </c>
       <c r="E45" t="n">
-        <v>10724.5269556317</v>
+        <v>10818.0152430618</v>
       </c>
       <c r="F45" t="n">
-        <v>13623.2890094579</v>
+        <v>13623.0666548079</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2603.4654391458</v>
+        <v>-2238.86601972572</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4375.93386195263</v>
+        <v>4647.95850199331</v>
       </c>
       <c r="C46" t="n">
-        <v>1560.3944819677</v>
+        <v>1560.35945544672</v>
       </c>
       <c r="D46" t="n">
-        <v>747.676983686306</v>
+        <v>747.736292913061</v>
       </c>
       <c r="E46" t="n">
-        <v>8143.89321606113</v>
+        <v>8169.19829422742</v>
       </c>
       <c r="F46" t="n">
-        <v>10901.069792697</v>
+        <v>10901.0936142469</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1611.06613804737</v>
+        <v>-1339.04149800669</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3384.46981849123</v>
+        <v>3490.12463691313</v>
       </c>
       <c r="C47" t="n">
-        <v>979.479505317791</v>
+        <v>979.510719062474</v>
       </c>
       <c r="D47" t="n">
-        <v>377.92430838113</v>
+        <v>378.127908550929</v>
       </c>
       <c r="E47" t="n">
-        <v>6682.79205605582</v>
+        <v>6662.38774852714</v>
       </c>
       <c r="F47" t="n">
-        <v>9211.74133786857</v>
+        <v>9211.86541815484</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1092.53018150877</v>
+        <v>-986.875363086866</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3280.33252241792</v>
+        <v>3373.25019801092</v>
       </c>
       <c r="C48" t="n">
-        <v>1163.4871952251</v>
+        <v>1163.49419393134</v>
       </c>
       <c r="D48" t="n">
-        <v>478.474748435679</v>
+        <v>478.628472063644</v>
       </c>
       <c r="E48" t="n">
-        <v>7355.02793230663</v>
+        <v>7355.1451102085</v>
       </c>
       <c r="F48" t="n">
-        <v>10092.4167159238</v>
+        <v>10092.5198925926</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1259.66747758208</v>
+        <v>-1166.74980198908</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3154.84830862451</v>
+        <v>3413.7670729748</v>
       </c>
       <c r="C49" t="n">
-        <v>1194.37901429571</v>
+        <v>1194.38050103066</v>
       </c>
       <c r="D49" t="n">
-        <v>488.608615975728</v>
+        <v>488.756456478106</v>
       </c>
       <c r="E49" t="n">
-        <v>7597.42923315406</v>
+        <v>7597.5428995111</v>
       </c>
       <c r="F49" t="n">
-        <v>10431.907215578</v>
+        <v>10431.9964322998</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-588.15169137549</v>
+        <v>-329.232927025202</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/forecast/Brucellosis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2572.20275205026</v>
+        <v>2556.10339907203</v>
       </c>
       <c r="C2" t="n">
         <v>1990.94552565737</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>127.202752050257</v>
+        <v>111.103399072029</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2639.78918530566</v>
+        <v>2628.86049520973</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4324254085</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1706.78918530566</v>
+        <v>1695.86049520973</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,10 +491,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4621.17256902415</v>
+        <v>4624.80752977741</v>
       </c>
       <c r="C4" t="n">
-        <v>3747.1947461551</v>
+        <v>3772.50607652774</v>
       </c>
       <c r="D4" t="n">
         <v>3485.60328678076</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1113.17256902415</v>
+        <v>1116.80752977741</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,10 +523,10 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5278.81200040951</v>
+        <v>5276.01440003021</v>
       </c>
       <c r="C5" t="n">
-        <v>4197.8071637364</v>
+        <v>4188.89868761321</v>
       </c>
       <c r="D5" t="n">
         <v>3868.95838552112</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-81.1879995904874</v>
+        <v>-83.9855999697911</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6258.88281186788</v>
+        <v>6227.22527828576</v>
       </c>
       <c r="C6" t="n">
-        <v>4939.60753901473</v>
+        <v>4856.69171320561</v>
       </c>
       <c r="D6" t="n">
-        <v>4467.99106945891</v>
+        <v>4441.20658287854</v>
       </c>
       <c r="E6" t="n">
         <v>8224.06638318932</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>994.882811867878</v>
+        <v>963.225278285759</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6687.01749759365</v>
+        <v>6591.05017268654</v>
       </c>
       <c r="C7" t="n">
         <v>5190.68809885786</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>494.017497593653</v>
+        <v>398.050172686535</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6559.71436554418</v>
+        <v>6472.67999490258</v>
       </c>
       <c r="C8" t="n">
         <v>4956.82440771123</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1587.71436554418</v>
+        <v>1500.67999490258</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5717.93740788259</v>
+        <v>5713.83299414923</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83587090505</v>
@@ -660,7 +660,7 @@
         <v>3531.61468845555</v>
       </c>
       <c r="E9" t="n">
-        <v>7287.25501368303</v>
+        <v>7324.10139639973</v>
       </c>
       <c r="F9" t="n">
         <v>8189.15969989382</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>745.937407882593</v>
+        <v>741.832994149228</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4160.35369060345</v>
+        <v>4184.4150534632</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58312230565</v>
@@ -692,10 +692,10 @@
         <v>2224.76351174621</v>
       </c>
       <c r="E10" t="n">
-        <v>5761.73653600922</v>
+        <v>5903.31002580408</v>
       </c>
       <c r="F10" t="n">
-        <v>6035.95909454476</v>
+        <v>6122.71265704546</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-331.64630939655</v>
+        <v>-307.584946536801</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3083.78511749756</v>
+        <v>3088.10104534332</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16803940872</v>
@@ -724,10 +724,10 @@
         <v>1489.11814114028</v>
       </c>
       <c r="E11" t="n">
-        <v>4425.0552576025</v>
+        <v>4495.88333402727</v>
       </c>
       <c r="F11" t="n">
-        <v>4735.03967863949</v>
+        <v>4815.15280423821</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-122.214882502443</v>
+        <v>-117.898954656681</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3160.00533464243</v>
+        <v>3137.78900342003</v>
       </c>
       <c r="C12" t="n">
         <v>2115.39107714259</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-450.994665357574</v>
+        <v>-473.210996579973</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3191.4404749693</v>
+        <v>3157.3474223041</v>
       </c>
       <c r="C13" t="n">
         <v>2175.51158214506</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-502.559525030699</v>
+        <v>-536.652577695901</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2737.03540391541</v>
+        <v>2695.0501283648</v>
       </c>
       <c r="C14" t="n">
         <v>1627.62592593388</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-437.964596084594</v>
+        <v>-479.949871635198</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2830.34866332889</v>
+        <v>2811.99000585156</v>
       </c>
       <c r="C15" t="n">
         <v>1739.51274386672</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-594.651336671109</v>
+        <v>-613.009994148441</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4456.74281602137</v>
+        <v>4433.38080688788</v>
       </c>
       <c r="C16" t="n">
-        <v>2675.16314910194</v>
+        <v>2565.7516415889</v>
       </c>
       <c r="D16" t="n">
-        <v>2467.48430094496</v>
+        <v>2361.12111988153</v>
       </c>
       <c r="E16" t="n">
         <v>7427.23358128313</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2763.25718397863</v>
+        <v>-2786.61919311212</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,10 +907,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5439.895494049</v>
+        <v>5312.16111256642</v>
       </c>
       <c r="C17" t="n">
-        <v>3780.98595055333</v>
+        <v>3542.59087162433</v>
       </c>
       <c r="D17" t="n">
         <v>3039.60984448802</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2408.104505951</v>
+        <v>-2535.83888743358</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,10 +939,10 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6393.94183436342</v>
+        <v>6231.19580251419</v>
       </c>
       <c r="C18" t="n">
-        <v>4348.03242544676</v>
+        <v>4088.735236529</v>
       </c>
       <c r="D18" t="n">
         <v>3632.09876793245</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1702.05816563658</v>
+        <v>-1864.80419748581</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6873.31076837848</v>
+        <v>6695.42425368426</v>
       </c>
       <c r="C19" t="n">
         <v>4597.30798659913</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-2796.68923162152</v>
+        <v>-2974.57574631574</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6809.64560121458</v>
+        <v>6668.47415684773</v>
       </c>
       <c r="C20" t="n">
         <v>4381.9010556836</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2412.35439878542</v>
+        <v>-2553.52584315227</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6211.42708879464</v>
+        <v>6120.63472218058</v>
       </c>
       <c r="C21" t="n">
         <v>3572.25164044213</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-655.572911205359</v>
+        <v>-746.365277819421</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4727.51960831672</v>
+        <v>4765.1164375778</v>
       </c>
       <c r="C22" t="n">
         <v>2275.00073445183</v>
@@ -1076,10 +1076,10 @@
         <v>1645.25522478535</v>
       </c>
       <c r="E22" t="n">
-        <v>7229.65640388393</v>
+        <v>7342.87847512405</v>
       </c>
       <c r="F22" t="n">
-        <v>7624.33668018669</v>
+        <v>7885.86855600154</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1204.48039168328</v>
+        <v>-1166.8835624222</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3355.83040760534</v>
+        <v>3558.39840751773</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19153963388</v>
@@ -1108,10 +1108,10 @@
         <v>1036.14414539061</v>
       </c>
       <c r="E23" t="n">
-        <v>5270.55310961148</v>
+        <v>5904.80368830401</v>
       </c>
       <c r="F23" t="n">
-        <v>6063.53863786345</v>
+        <v>6453.98378213673</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-266.16959239466</v>
+        <v>-63.6015924822746</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3202.17195444035</v>
+        <v>3368.2012632962</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72958252457</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-446.828045559646</v>
+        <v>-280.798736703802</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3248.37574806157</v>
+        <v>3239.25842044471</v>
       </c>
       <c r="C25" t="n">
         <v>1829.00792712152</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1670.62425193843</v>
+        <v>-1679.74157955529</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2842.38299575163</v>
+        <v>2805.19327642847</v>
       </c>
       <c r="C26" t="n">
         <v>1423.24823245191</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1553.61700424837</v>
+        <v>-1590.80672357153</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2946.72023296707</v>
+        <v>2930.63333900556</v>
       </c>
       <c r="C27" t="n">
         <v>1434.76554859017</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1742.27976703293</v>
+        <v>-1758.36666099444</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,13 +1259,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4534.11860889966</v>
+        <v>4591.79494979957</v>
       </c>
       <c r="C28" t="n">
-        <v>2238.81758237349</v>
+        <v>2193.61713400555</v>
       </c>
       <c r="D28" t="n">
-        <v>1937.22633815293</v>
+        <v>1872.29249367273</v>
       </c>
       <c r="E28" t="n">
         <v>8559.27469317333</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2121.88139110034</v>
+        <v>-2064.20505020043</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,13 +1291,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5445.78511760666</v>
+        <v>5103.09388095192</v>
       </c>
       <c r="C29" t="n">
-        <v>2991.79526356516</v>
+        <v>2581.27530225082</v>
       </c>
       <c r="D29" t="n">
-        <v>2343.12151936284</v>
+        <v>2311.09760064396</v>
       </c>
       <c r="E29" t="n">
         <v>9743.94465460174</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1678.21488239334</v>
+        <v>-2020.90611904808</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6433.40511856202</v>
+        <v>6313.87189593881</v>
       </c>
       <c r="C30" t="n">
-        <v>3943.61197979879</v>
+        <v>3573.38391604042</v>
       </c>
       <c r="D30" t="n">
         <v>2854.31259377546</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2390.59488143798</v>
+        <v>-2510.12810406119</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6883.69903510923</v>
+        <v>6757.85862463856</v>
       </c>
       <c r="C31" t="n">
         <v>4049.32147167665</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3059.30096489077</v>
+        <v>-3185.14137536144</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6855.42496972553</v>
+        <v>6950.08190264226</v>
       </c>
       <c r="C32" t="n">
         <v>3846.91782069451</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2827.57503027447</v>
+        <v>-2732.91809735774</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6114.33631737048</v>
+        <v>6203.06499425315</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90904541359</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1772.66368262952</v>
+        <v>-1683.93500574685</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4441.37332308244</v>
+        <v>4941.59183484561</v>
       </c>
       <c r="C34" t="n">
         <v>1908.88040072469</v>
@@ -1460,7 +1460,7 @@
         <v>1158.23099992112</v>
       </c>
       <c r="E34" t="n">
-        <v>7242.60089429465</v>
+        <v>7826.13543646799</v>
       </c>
       <c r="F34" t="n">
         <v>9015.11955247209</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-869.626676917561</v>
+        <v>-369.408165154389</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3347.88070298965</v>
+        <v>3907.34355407412</v>
       </c>
       <c r="C35" t="n">
         <v>1251.37715529486</v>
@@ -1492,10 +1492,10 @@
         <v>669.251999531072</v>
       </c>
       <c r="E35" t="n">
-        <v>6107.33219804012</v>
+        <v>6991.89597918518</v>
       </c>
       <c r="F35" t="n">
-        <v>7309.69618277535</v>
+        <v>7703.20223561679</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>812.880702989649</v>
+        <v>1372.34355407412</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3253.90167179179</v>
+        <v>3764.26014914195</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35524299054</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>684.90167179179</v>
+        <v>1195.26014914195</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3317.82169140708</v>
+        <v>3428.29580229241</v>
       </c>
       <c r="C37" t="n">
         <v>1501.83321574786</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1497.82169140708</v>
+        <v>1608.29580229241</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2897.72076535064</v>
+        <v>2891.89515951413</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63075446668</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>579.720765350643</v>
+        <v>573.895159514133</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2998.52868347216</v>
+        <v>3060.66114961885</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79662291997</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2663.47131652784</v>
+        <v>-2601.33885038115</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,13 +1643,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4591.46710992684</v>
+        <v>4724.06658152033</v>
       </c>
       <c r="C40" t="n">
-        <v>2178.21345746216</v>
+        <v>2136.58670845365</v>
       </c>
       <c r="D40" t="n">
-        <v>1466.26693452937</v>
+        <v>1364.5991134202</v>
       </c>
       <c r="E40" t="n">
         <v>9626.85909095167</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1951.53289007316</v>
+        <v>-1818.93341847967</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5575.88840939652</v>
+        <v>5171.60614288838</v>
       </c>
       <c r="C41" t="n">
-        <v>2457.96395624202</v>
+        <v>2328.40787880818</v>
       </c>
       <c r="D41" t="n">
         <v>1722.85889423402</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2101.11159060348</v>
+        <v>-2505.39385711162</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6504.33734878289</v>
+        <v>6308.84791653362</v>
       </c>
       <c r="C42" t="n">
-        <v>3367.37763206215</v>
+        <v>2755.07926365032</v>
       </c>
       <c r="D42" t="n">
         <v>2151.35488903287</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2562.66265121711</v>
+        <v>-2758.15208346638</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6947.79573341074</v>
+        <v>6757.01078635157</v>
       </c>
       <c r="C43" t="n">
         <v>3513.09465527914</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1378.20426658926</v>
+        <v>-1568.98921364843</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6932.55777368015</v>
+        <v>6797.38368130709</v>
       </c>
       <c r="C44" t="n">
         <v>3323.76263503061</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2231.44222631985</v>
+        <v>-2366.61631869291</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6115.13398027428</v>
+        <v>6261.04647513945</v>
       </c>
       <c r="C45" t="n">
         <v>2633.38312573204</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2238.86601972572</v>
+        <v>-2092.95352486055</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4647.95850199331</v>
+        <v>4920.80545499908</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35945544672</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1339.04149800669</v>
+        <v>-1066.19454500092</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3490.12463691313</v>
+        <v>3933.33536214867</v>
       </c>
       <c r="C47" t="n">
         <v>979.510719062474</v>
@@ -1876,7 +1876,7 @@
         <v>378.127908550929</v>
       </c>
       <c r="E47" t="n">
-        <v>6662.38774852714</v>
+        <v>7388.3286515364</v>
       </c>
       <c r="F47" t="n">
         <v>9211.86541815484</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-986.875363086866</v>
+        <v>-543.664637851328</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3373.25019801092</v>
+        <v>3886.60099848003</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49419393134</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1166.74980198908</v>
+        <v>-653.399001519974</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3413.7670729748</v>
+        <v>3523.16401936947</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38050103066</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-329.232927025202</v>
+        <v>-219.835980630529</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
